--- a/Process Results/Unified_IBNP_NFL.xlsx
+++ b/Process Results/Unified_IBNP_NFL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joranias\Documents\GitHub\DMI_IBNP\Process Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C6CD1B3-CB7C-4AA6-976A-628D76F32ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{231546C1-14F7-4E8E-92DD-A7C836BC2349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Process Results/Unified_IBNP_NFL.xlsx
+++ b/Process Results/Unified_IBNP_NFL.xlsx
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.05078303712905691</v>
+        <v>0.1883042443140392</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.04236890328614213</v>
+        <v>0.05349305617221676</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.02103430112286419</v>
+        <v>0.05140351448459358</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.04619595854058044</v>
+        <v>0.08331746879142916</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5287926872073571</v>
+        <v>0.6149340768078218</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5646420645837116</v>
+        <v>0.2785873446633348</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4946931726730578</v>
+        <v>0.4813756203248666</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.5461296966324749</v>
+        <v>0.3834554997435399</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6186925073943566</v>
+        <v>0.8577439421616414</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.794809997008245</v>
+        <v>0.876307664576183</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.617376774288211</v>
+        <v>0.790512726905338</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6957794392574648</v>
+        <v>0.8669264372979876</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.7990272304154635</v>
+        <v>0.9445295175311124</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.8934256631894021</v>
+        <v>0.9137443805875076</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.70978017390002</v>
+        <v>0.8303444778526691</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.8435938582843573</v>
+        <v>0.9288819477224254</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9449216239011605</v>
+        <v>0.9483142470717355</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9509937251734816</v>
+        <v>0.944188836101795</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7650365049418298</v>
+        <v>0.9306834449164227</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.9479479508927819</v>
+        <v>0.9462470451566611</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9798418216552337</v>
+        <v>0.9472156830310499</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9692859718382724</v>
+        <v>0.9484231562883982</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8144793753005316</v>
+        <v>0.9483624888210329</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9745353132014025</v>
+        <v>0.9478190350949965</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9798418216552337</v>
+        <v>0.9478936924040413</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.987576356958729</v>
+        <v>0.9524373237559703</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.8620967053971975</v>
+        <v>0.9522887336334179</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.9836938858700579</v>
+        <v>0.9501600762405823</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3993,20 +3993,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9798418216552337</v>
+        <v>0.9483978022166362</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9877353539383484</v>
+        <v>0.9790657573196248</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9166568232562547</v>
+        <v>0.9670509560610577</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9837727541480079</v>
+        <v>0.9634878001957162</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4031,20 +4031,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9994682716643516</v>
+        <v>0.9397383073989577</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9977567011255262</v>
+        <v>0.9743601207137521</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9346381288320362</v>
+        <v>0.9715934020198307</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9986117530089285</v>
+        <v>0.956736097985729</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4069,20 +4069,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9994682716643516</v>
+        <v>0.9397383073989577</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9985349044277024</v>
+        <v>0.9747361286944147</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.9774081892422019</v>
+        <v>0.9796042659411704</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.9990013700347623</v>
+        <v>0.9569173267302139</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4107,20 +4107,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9995513061590457</v>
+        <v>0.9397383073989577</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9985893894074603</v>
+        <v>0.9747361286944147</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9932210893504893</v>
+        <v>0.9797139350201325</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9990701162470456</v>
+        <v>0.9569173267302139</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4145,20 +4145,20 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9995513061590457</v>
+        <v>0.9398999321820272</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9998062657418216</v>
+        <v>0.9748175738715543</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9938506259852564</v>
+        <v>0.9797634485245618</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9996787696941146</v>
+        <v>0.9570403661897499</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4183,20 +4183,20 @@
         <v/>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9995513061590457</v>
+        <v>0.9444355073154798</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9998175405358726</v>
+        <v>0.9764886016649141</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.9940201752293606</v>
+        <v>0.9807281345130202</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>0.9996844056216795</v>
+        <v>0.960194630896373</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4221,20 +4221,20 @@
         <v/>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9995900420682883</v>
+        <v>0.9448601119069593</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9998293567237631</v>
+        <v>0.9766732368311489</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9998867413450176</v>
+        <v>0.9808046203532345</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.9997096850739919</v>
+        <v>0.9605033235096724</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -4259,20 +4259,20 @@
         <v/>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1</v>
+        <v>0.9448601119069593</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1</v>
+        <v>0.9768966681235907</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9999945438379919</v>
+        <v>0.9809172121619086</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>1</v>
+        <v>0.9606113580617817</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -4297,20 +4297,20 @@
         <v/>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1</v>
+        <v>0.9787619324405894</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1</v>
+        <v>0.9901058738884271</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>1</v>
+        <v>0.9885941523986389</v>
       </c>
       <c r="H22" s="4">
         <f>+I22/I23</f>
         <v/>
       </c>
       <c r="I22" s="5" t="n">
-        <v>1</v>
+        <v>0.9844012232133308</v>
       </c>
       <c r="J22" s="5">
         <f>I22</f>
@@ -4335,20 +4335,20 @@
         <v/>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1</v>
+        <v>0.9787619324405894</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1</v>
+        <v>0.9901058738884271</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1</v>
+        <v>0.9887433191935299</v>
       </c>
       <c r="H23" s="4">
         <f>+I23/I24</f>
         <v/>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1</v>
+        <v>0.9844012232133308</v>
       </c>
       <c r="J23" s="5">
         <f>I23</f>
@@ -4373,20 +4373,20 @@
         <v/>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1</v>
+        <v>0.9787619324405894</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1</v>
+        <v>0.9901058738884271</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1</v>
+        <v>0.9901058738884271</v>
       </c>
       <c r="H24" s="4">
         <f>+I24/I25</f>
         <v/>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1</v>
+        <v>0.9844012232133308</v>
       </c>
       <c r="J24" s="5">
         <f>I24</f>
@@ -4833,40 +4833,40 @@
         <v>0</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>5.659810157549662</v>
+        <v>31.82892707819977</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>3.235049517960635</v>
+        <v>1.200907031743614</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>1.10575631655599</v>
+        <v>1.077261977941904</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>1.0042369256334</v>
+        <v>1.180160956239902</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>1.002455096189619</v>
+        <v>1.054796407209136</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>1</v>
+        <v>1.001057597504442</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>1.002991617134462</v>
+        <v>1</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>1</v>
+        <v>1.000469994259068</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>1.004709794064386</v>
+        <v>1</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>1</v>
+        <v>1.000223583680993</v>
       </c>
       <c r="L38" s="4" t="n">
         <v>1</v>
       </c>
       <c r="M38" s="4" t="n">
-        <v>1.002329802895816</v>
+        <v>1</v>
       </c>
       <c r="N38" s="4" t="n">
         <v>1</v>
@@ -4881,7 +4881,7 @@
         <v>1</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>1</v>
+        <v>1.007429554375347</v>
       </c>
       <c r="S38" s="4" t="n">
         <v>1</v>
@@ -4908,34 +4908,34 @@
         <v/>
       </c>
       <c r="B39" s="4" t="n">
-        <v>25.65939812665556</v>
+        <v>28.52403755059857</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>1.161086139472117</v>
+        <v>1.069411575017075</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>1.000714494242111</v>
+        <v>1.427219739500572</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>1.004585710608824</v>
+        <v>1.004708261852159</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>1.071875306297825</v>
+        <v>1.002336798232004</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>1</v>
+        <v>1.098955096165255</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>1</v>
+        <v>1.000919498480075</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>1.0005452544152</v>
+        <v>1.000144298649629</v>
       </c>
       <c r="J39" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>1.001209788146797</v>
+        <v>1</v>
       </c>
       <c r="L39" s="4" t="n">
         <v>1</v>
@@ -4944,16 +4944,16 @@
         <v>1</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v>1.066063097900756</v>
+        <v>1</v>
       </c>
       <c r="O39" s="4" t="n">
         <v>1</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>1.000052172029102</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>1</v>
+        <v>1.001007087826987</v>
       </c>
       <c r="R39" s="4" t="n">
         <v>1</v>
@@ -4983,22 +4983,22 @@
         <v/>
       </c>
       <c r="B40" s="4" t="n">
-        <v>17.97909604519774</v>
+        <v>26.21632647358788</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>3.980095259044447</v>
+        <v>1.27577930237689</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>1.001201768534079</v>
+        <v>1.023941282766537</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1.006999179317217</v>
+        <v>1.068631422467371</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>0.9999636419978554</v>
+        <v>1.014043724587551</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>1</v>
+        <v>1.001832609838947</v>
       </c>
       <c r="H40" s="4" t="n">
         <v>1</v>
@@ -5013,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>1.001390604303154</v>
+        <v>1.000168721575206</v>
       </c>
       <c r="M40" s="4" t="n">
         <v>1</v>
@@ -5058,64 +5058,64 @@
         <v/>
       </c>
       <c r="B41" s="4" t="n">
-        <v>29.37508305647841</v>
+        <v>252.6361445783132</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>1.21633654383747</v>
+        <v>1.03066758708176</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>1.008874965788549</v>
+        <v>1.098252175165375</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>1.065692795947971</v>
+        <v>1.001432467076956</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>1</v>
+        <v>1.00294077122672</v>
       </c>
       <c r="G41" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>1.073134625240508</v>
+        <v>1</v>
       </c>
       <c r="I41" s="4" t="n">
+        <v>1.001851993619746</v>
+      </c>
+      <c r="J41" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O41" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" s="4" t="n">
+        <v>1.084525500532275</v>
+      </c>
+      <c r="T41" s="4" t="n">
         <v>0.9999999999999999</v>
       </c>
-      <c r="J41" s="4" t="n">
-        <v>1.054520373135191</v>
-      </c>
-      <c r="K41" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L41" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O41" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P41" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R41" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="S41" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="T41" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="U41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V41" s="4" t="n">
         <v/>
@@ -5133,16 +5133,16 @@
         <v/>
       </c>
       <c r="B42" s="4" t="n">
-        <v>6.925354500903722</v>
+        <v>18.33597997756106</v>
       </c>
       <c r="C42" s="4" t="n">
-        <v>1.837245031116899</v>
+        <v>1.089706196908057</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>1.274466343309375</v>
+        <v>1.158228233863378</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>0.9702976668239008</v>
+        <v>1.006773557972201</v>
       </c>
       <c r="F42" s="4" t="n">
         <v>1</v>
@@ -5151,16 +5151,16 @@
         <v>1</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>1.034551037833831</v>
+        <v>1</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>1.005421954307457</v>
+        <v>1.056237349271639</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>1.000122962788386</v>
+        <v>1</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>1.276956703636348</v>
+        <v>1</v>
       </c>
       <c r="L42" s="4" t="n">
         <v>1</v>
@@ -5172,7 +5172,7 @@
         <v>1</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>1</v>
+        <v>1.000951938595869</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>1</v>
@@ -5208,31 +5208,31 @@
         <v/>
       </c>
       <c r="B43" s="4" t="n">
-        <v>40.639984003031</v>
+        <v>33.80396062807593</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>1.128948370205592</v>
+        <v>1.588251878504684</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>1.021022289875737</v>
+        <v>1.011603789164607</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>1.08257123946949</v>
+        <v>1.002741457934946</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>1</v>
+        <v>1.058778409152034</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>1.291517454688535</v>
+        <v>1</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>1.002576097058699</v>
+        <v>1</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>1.000959707664199</v>
+        <v>1</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>1.174515338358481</v>
+        <v>1</v>
       </c>
       <c r="K43" s="4" t="n">
         <v>1</v>
@@ -5241,7 +5241,7 @@
         <v>1</v>
       </c>
       <c r="M43" s="4" t="n">
-        <v>1</v>
+        <v>1.003651774727971</v>
       </c>
       <c r="N43" s="4" t="n">
         <v>1</v>
@@ -5283,31 +5283,31 @@
         <v/>
       </c>
       <c r="B44" s="4" t="n">
-        <v>5.736384633015392</v>
+        <v>21.72518625330449</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1.244085049882899</v>
+        <v>1.56973152209384</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1.169335619360077</v>
+        <v>0.9796672160505845</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>1.13450411418881</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1.029386295706584</v>
+        <v>1.002312681352613</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>1.00082795883724</v>
+        <v>1</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>1.680943417599183</v>
+        <v>1</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>1.056033963627604</v>
+        <v>1</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>1.193749295686683</v>
+        <v>1</v>
       </c>
       <c r="K44" s="4" t="n">
         <v>1</v>
@@ -5325,13 +5325,13 @@
         <v>1</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>1</v>
+        <v>1.144881901065846</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S44" t="n">
         <v/>
@@ -5358,37 +5358,37 @@
         <v/>
       </c>
       <c r="B45" s="4" t="n">
-        <v>8.625026337541936</v>
+        <v>7.550508832988237</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>1.263562060337627</v>
+        <v>1.519060927675249</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>1.013540071816142</v>
+        <v>1.592746184308067</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>1.059592878230298</v>
+        <v>1.006712936168024</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>1.2441120325371</v>
+        <v>1.019126981148497</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>1.285449293752296</v>
+        <v>1</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>1.259052933233062</v>
+        <v>1</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>1.082019600001513</v>
+        <v>1</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>1.000845362534994</v>
+        <v>1</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>1</v>
+        <v>1.001851415122058</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>1.005309219147864</v>
+        <v>1</v>
       </c>
       <c r="M45" s="4" t="n">
         <v>1</v>
@@ -5433,31 +5433,31 @@
         <v/>
       </c>
       <c r="B46" s="4" t="n">
-        <v>7.875023106525283</v>
+        <v>21.90397039318872</v>
       </c>
       <c r="C46" s="4" t="n">
-        <v>1.487193220932143</v>
+        <v>1.086499668432099</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>1.252156969094324</v>
+        <v>1.156134156470339</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>1.01477662600182</v>
+        <v>1.510580085368414</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>1.534578801816258</v>
+        <v>1</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>1.4436858561382</v>
+        <v>1</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>1.019827647283994</v>
+        <v>1.0839248481517</v>
       </c>
       <c r="K46" s="4" t="n">
         <v>1</v>
@@ -5466,16 +5466,16 @@
         <v>1</v>
       </c>
       <c r="M46" s="4" t="n">
-        <v>1.000081467128014</v>
+        <v>1</v>
       </c>
       <c r="N46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.000830029202973</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q46" s="4" t="n">
         <v/>
@@ -5508,31 +5508,31 @@
         <v/>
       </c>
       <c r="B47" s="4" t="n">
-        <v>5.470235880199268</v>
+        <v>5.795687829978828</v>
       </c>
       <c r="C47" s="4" t="n">
-        <v>1.646788004336205</v>
+        <v>1.173670374489317</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>1.424205597264531</v>
+        <v>1.124545184122863</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>1.260181253730897</v>
+        <v>1.106610375846333</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>1.144410604267426</v>
+        <v>1</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>1</v>
+        <v>1.01023740586953</v>
       </c>
       <c r="H47" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>1.000882341110478</v>
+        <v>1.008574517761725</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>1.006638949280295</v>
+        <v>1.003707029684203</v>
       </c>
       <c r="K47" s="4" t="n">
         <v>1</v>
@@ -5541,13 +5541,13 @@
         <v>1</v>
       </c>
       <c r="M47" s="4" t="n">
-        <v>1</v>
+        <v>1.00337911050295</v>
       </c>
       <c r="N47" s="4" t="n">
         <v>1</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>1.001774680029569</v>
+        <v>1</v>
       </c>
       <c r="P47" t="n">
         <v/>
@@ -5583,43 +5583,43 @@
         <v/>
       </c>
       <c r="B48" s="4" t="n">
-        <v/>
+        <v>24.81726588628763</v>
       </c>
       <c r="C48" s="4" t="n">
-        <v>1.73485564304462</v>
+        <v>1.311384720086115</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>1.260636410398884</v>
+        <v>1.019363474275379</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>1.019638198915317</v>
+        <v>1.201625606452019</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>1.016290722794493</v>
+        <v>1.169367101882439</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>1.035435657386877</v>
+        <v>1</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>1.004148605488971</v>
+        <v>1.008483924487691</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>1.000081009130742</v>
+        <v>1.006972814826013</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>1</v>
+        <v>1.000757715584655</v>
       </c>
       <c r="K48" s="4" t="n">
         <v>1</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>1</v>
+        <v>1.000578004586974</v>
       </c>
       <c r="M48" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N48" s="4" t="n">
-        <v>1.000178205651347</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O48" t="n">
         <v/>
@@ -5658,40 +5658,40 @@
         <v/>
       </c>
       <c r="B49" s="4" t="n">
-        <v>31.82892707819977</v>
+        <v/>
       </c>
       <c r="C49" s="4" t="n">
-        <v>1.200907031743614</v>
+        <v>1.27863887822082</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>1.077261977941904</v>
+        <v>1</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>1.180160956239902</v>
+        <v>1</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>1.054796407209136</v>
+        <v>1.023382132089099</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>1.001057597504442</v>
+        <v>1.043600997439189</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1</v>
+        <v>1.500575349288542</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>1.000469994259068</v>
+        <v>1</v>
       </c>
       <c r="J49" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>1.000223583680993</v>
+        <v>1</v>
       </c>
       <c r="L49" s="4" t="n">
         <v>1</v>
       </c>
       <c r="M49" s="4" t="n">
-        <v>1</v>
+        <v>1.013990506084633</v>
       </c>
       <c r="N49" t="n">
         <v/>
@@ -5733,28 +5733,28 @@
         <v/>
       </c>
       <c r="B50" s="4" t="n">
-        <v>28.52403755059857</v>
+        <v>22.70356801529149</v>
       </c>
       <c r="C50" s="4" t="n">
-        <v>1.069411575017075</v>
+        <v>1.000471145953245</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1.427219739500572</v>
+        <v>1</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>1.004708261852159</v>
+        <v>1</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1.002336798232004</v>
+        <v>1.046009228601544</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>1.098955096165255</v>
+        <v>1.018194063825683</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>1.000919498480075</v>
+        <v>1.000923330635432</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>1.000144298649629</v>
+        <v>1</v>
       </c>
       <c r="J50" s="4" t="n">
         <v>1</v>
@@ -5808,28 +5808,28 @@
         <v/>
       </c>
       <c r="B51" s="4" t="n">
-        <v>26.21632647358788</v>
+        <v/>
       </c>
       <c r="C51" s="4" t="n">
-        <v>1.27577930237689</v>
+        <v>1</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>1.023941282766537</v>
+        <v>1</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>1.068631422467371</v>
+        <v>1.43332598649129</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>1.014043724587551</v>
+        <v>1.024351516612574</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>1.001832609838947</v>
+        <v>1</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>1</v>
+        <v>1.026689232542317</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>1</v>
+        <v>0.9740045656500862</v>
       </c>
       <c r="J51" s="4" t="n">
         <v>1</v>
@@ -5883,28 +5883,28 @@
         <v/>
       </c>
       <c r="B52" s="4" t="n">
-        <v>252.6361445783132</v>
+        <v/>
       </c>
       <c r="C52" s="4" t="n">
-        <v>1.03066758708176</v>
+        <v/>
       </c>
       <c r="D52" s="4" t="n">
-        <v>1.098252175165375</v>
+        <v>1.19814121261283</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>1.001432467076956</v>
+        <v>1.038932186271267</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>1.00294077122672</v>
+        <v>1.000575396084747</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>1</v>
+        <v>1.005621675321069</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>1</v>
+        <v>1.001686932290047</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>1.001851993619746</v>
+        <v>1</v>
       </c>
       <c r="J52" s="4" t="n">
         <v>1</v>
@@ -5958,28 +5958,28 @@
         <v/>
       </c>
       <c r="B53" s="4" t="n">
-        <v>18.33597997756106</v>
+        <v/>
       </c>
       <c r="C53" s="4" t="n">
-        <v>1.089706196908057</v>
+        <v/>
       </c>
       <c r="D53" s="4" t="n">
-        <v>1.158228233863378</v>
+        <v>1.040664078978288</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>1.006773557972201</v>
+        <v>1.101098010196586</v>
       </c>
       <c r="F53" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>1</v>
+        <v>1.001167677616218</v>
       </c>
       <c r="H53" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>1.056237349271639</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
         <v/>
@@ -6033,19 +6033,19 @@
         <v/>
       </c>
       <c r="B54" s="4" t="n">
-        <v>33.80396062807593</v>
+        <v/>
       </c>
       <c r="C54" s="4" t="n">
-        <v>1.588251878504684</v>
+        <v>6.48362108644345</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>1.011603789164607</v>
+        <v>1.039308000358476</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>1.002741457934946</v>
+        <v>1.003847385429832</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>1.058778409152034</v>
+        <v>1</v>
       </c>
       <c r="G54" s="4" t="n">
         <v>1</v>
@@ -6108,22 +6108,22 @@
         <v/>
       </c>
       <c r="B55" s="4" t="n">
-        <v>21.72518625330449</v>
+        <v>8.675688093466942</v>
       </c>
       <c r="C55" s="4" t="n">
-        <v>1.56973152209384</v>
+        <v>4.612350610671045</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>0.9796672160505845</v>
+        <v>1.019066781851783</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.00088689202559</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>1.002312681352613</v>
+        <v>0.9961955866231743</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>1</v>
+        <v>1.00102186434549</v>
       </c>
       <c r="H55" t="n">
         <v/>
@@ -6183,19 +6183,19 @@
         <v/>
       </c>
       <c r="B56" s="4" t="n">
-        <v>7.550508832988237</v>
+        <v>13.19602232078981</v>
       </c>
       <c r="C56" s="4" t="n">
-        <v>1.519060927675249</v>
+        <v>1.258964294620881</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>1.592746184308067</v>
+        <v>1.081654975217573</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1.006712936168024</v>
+        <v>1.00506801813817</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>1.019126981148497</v>
+        <v>1.008884716544665</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6258,16 +6258,16 @@
         <v/>
       </c>
       <c r="B57" s="4" t="n">
-        <v>21.90397039318872</v>
+        <v>12.16980172852059</v>
       </c>
       <c r="C57" s="4" t="n">
-        <v>1.086499668432099</v>
+        <v>2.153861761932612</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>1.156134156470339</v>
+        <v>1.12241420393778</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>1.510580085368414</v>
+        <v>1.017704489070465</v>
       </c>
       <c r="F57" t="n">
         <v/>
@@ -6333,13 +6333,13 @@
         <v/>
       </c>
       <c r="B58" s="4" t="n">
-        <v>5.795687829978828</v>
+        <v>2.3309067110515</v>
       </c>
       <c r="C58" s="4" t="n">
-        <v>1.173670374489317</v>
+        <v>1.1266400219074</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>1.124545184122863</v>
+        <v>1.09154793074909</v>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6408,10 +6408,10 @@
         <v/>
       </c>
       <c r="B59" s="4" t="n">
-        <v>24.81726588628763</v>
+        <v>4.419257807219143</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>1.311384720086115</v>
+        <v>1.204398234893734</v>
       </c>
       <c r="D59" t="n">
         <v/>
@@ -6483,7 +6483,7 @@
         <v/>
       </c>
       <c r="B60" s="4" t="n">
-        <v/>
+        <v>11.88154069767442</v>
       </c>
       <c r="C60" t="n">
         <v/>
@@ -6704,61 +6704,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.02957484145775326</v>
+        <v>0.03176280611877875</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.02103430112286419</v>
+        <v>0.05140351448459358</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.04236890328614213</v>
+        <v>0.05349305617221676</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.05078303712905691</v>
+        <v>0.1883042443140392</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.0137119207392173</v>
+        <v>0.01444549244149393</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.009979739224618192</v>
+        <v>0.03242374843011947</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.03337894556844922</v>
+        <v>0.03244456404862571</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.03461173167124978</v>
+        <v>0.09020540716886603</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.04619595854058044</v>
+        <v>0.08331746879142916</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="22" t="n">
-        <v>16.90720642522814</v>
+        <v>18.3726234373214</v>
       </c>
       <c r="O2" s="22" t="n">
-        <v>23.51840309708833</v>
+        <v>9.364644132827577</v>
       </c>
       <c r="P2" s="22" t="n">
-        <v>13.32680387713488</v>
+        <v>5.207916028698087</v>
       </c>
       <c r="Q2" s="22" t="n">
-        <v>10.41278184807095</v>
+        <v>3.265641085509908</v>
       </c>
       <c r="R2" s="22" t="n">
-        <v>29.86111387281821</v>
+        <v>30.47304338089435</v>
       </c>
       <c r="S2" s="22" t="n">
-        <v>43.01254504382585</v>
+        <v>10.7681121962877</v>
       </c>
       <c r="T2" s="22" t="n">
-        <v>16.35852383914958</v>
+        <v>8.778869559787067</v>
       </c>
       <c r="U2" s="22" t="n">
-        <v>15.30647685813323</v>
+        <v>6.21056840531502</v>
       </c>
       <c r="V2" s="22" t="n">
-        <v>11.86979286260292</v>
+        <v>4.236778557103997</v>
       </c>
     </row>
     <row r="3">
@@ -6767,62 +6767,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.5000279495196294</v>
+        <v>0.5835660761329701</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.4946931726730578</v>
+        <v>0.4813756203248666</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.5646420645837116</v>
+        <v>0.2785873446633348</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.5287926872073571</v>
+        <v>0.6149340768078218</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.4094532266088254</v>
+        <v>0.4401981178280257</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.4292539829245256</v>
+        <v>0.3491425609197337</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.5460302768071529</v>
+        <v>0.2848265957070421</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.5297836698459016</v>
+        <v>0.5602268517515364</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.5461296966324749</v>
+        <v>0.3834554997435399</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>1.353558086941688</v>
+        <v>1.353658738283128</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>1.247999383036229</v>
+        <v>1.642195187142722</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v>1.40763511410406</v>
+        <v>3.145540102100392</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <v>1.170009575324832</v>
+        <v>1.394855114574667</v>
       </c>
       <c r="R3" s="22" t="n">
-        <v>1.538650710208152</v>
+        <v>1.701700840952594</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>1.30416053562111</v>
+        <v>2.14303307547293</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v>1.37476651521355</v>
+        <v>2.806639335078188</v>
       </c>
       <c r="U3" s="22" t="n">
-        <v>1.190518254335844</v>
+        <v>1.494966672911249</v>
       </c>
       <c r="V3" s="22" t="n">
-        <v>1.288822344714446</v>
+        <v>2.270197608337529</v>
       </c>
     </row>
     <row r="4">
@@ -6831,62 +6831,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.6768168747691644</v>
+        <v>0.789949318322992</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.617376774288211</v>
+        <v>0.790512726905338</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.794809997008245</v>
+        <v>0.876307664576183</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.6186925073943566</v>
+        <v>0.8577439421616414</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.6300054979186889</v>
+        <v>0.7490855072937005</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.5598161042883441</v>
+        <v>0.7482240561063118</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.7506641408472599</v>
+        <v>0.7994055271877964</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.6307171298005797</v>
+        <v>0.8375204726385377</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.6957794392574648</v>
+        <v>0.8669264372979876</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.11308087304759</v>
+        <v>1.096031810807716</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.149671000692151</v>
+        <v>1.050387235513921</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1.124074516617</v>
+        <v>1.042720972923854</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>1.291477140689149</v>
+        <v>1.101178884633984</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>1.151500513599715</v>
+        <v>1.107702885587401</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>1.194536828918137</v>
+        <v>1.061392153508672</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>1.170487460663306</v>
+        <v>1.065775995182165</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>1.291141841633756</v>
+        <v>1.098539036634815</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.207775828653074</v>
+        <v>1.071949928778919</v>
       </c>
     </row>
     <row r="5">
@@ -6895,62 +6895,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.7533519178614027</v>
+        <v>0.8658095818078699</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.70978017390002</v>
+        <v>0.8303444778526691</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.8934256631894021</v>
+        <v>0.9137443805875076</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.7990272304154635</v>
+        <v>0.9445295175311124</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.7254516544240146</v>
+        <v>0.8297641779809344</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.6687209539939034</v>
+        <v>0.7941591422176717</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.8786429640313118</v>
+        <v>0.8519872212926972</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.8143452765206772</v>
+        <v>0.9200489331742739</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.8435938582843573</v>
+        <v>0.9288819477224254</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.06166968451734</v>
+        <v>1.077327689199647</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.077849921811979</v>
+        <v>1.120840169038322</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1.064435200773806</v>
+        <v>1.033318350472057</v>
       </c>
       <c r="Q5" s="22" t="n">
-        <v>1.182590014372648</v>
+        <v>1.004006999750009</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>1.070240886697396</v>
+        <v>1.084542004750076</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>1.089694768644</v>
+        <v>1.118306586274164</v>
       </c>
       <c r="T5" s="22" t="n">
-        <v>1.088040084086757</v>
+        <v>1.027922830188652</v>
       </c>
       <c r="U5" s="22" t="n">
-        <v>1.172431007178812</v>
+        <v>1.007886466411408</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.123512607573227</v>
+        <v>1.018662675111033</v>
       </c>
     </row>
     <row r="6">
@@ -6959,62 +6959,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.7998108929664486</v>
+        <v>0.932760636055985</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.7650365049418298</v>
+        <v>0.9306834449164227</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.9509937251734816</v>
+        <v>0.944188836101795</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.9449216239011605</v>
+        <v>0.9483142470717355</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.7764080218868501</v>
+        <v>0.8999141050572417</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.7287017252497817</v>
+        <v>0.8881133992918628</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.9559987644668654</v>
+        <v>0.8757771157957547</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.9547636527424461</v>
+        <v>0.927304868182605</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.9479479508927819</v>
+        <v>0.9462470451566611</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.04496527591119</v>
+        <v>1.021073544800321</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.064628119101926</v>
+        <v>1.018995764887811</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.019234876298951</v>
+        <v>1.004484611578427</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1.036955655231916</v>
+        <v>0.9988415611765004</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1.063021488132406</v>
+        <v>1.022268497439305</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.091143994526986</v>
+        <v>1.023991054965562</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.016200427911236</v>
+        <v>1.005001202644193</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1.026739357217715</v>
+        <v>1.00169343438928</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.028095265765434</v>
+        <v>1.001663086377463</v>
       </c>
     </row>
     <row r="7">
@@ -7023,62 +7023,62 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.8357746104454606</v>
+        <v>0.9524172091078866</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.8144793753005316</v>
+        <v>0.9483624888210329</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.9692859718382724</v>
+        <v>0.9484231562883982</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.9798418216552337</v>
+        <v>0.9472156830310499</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.8253384108240969</v>
+        <v>0.9199538400013033</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.7951185113077532</v>
+        <v>0.9094201766699259</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.9714863535338414</v>
+        <v>0.8801570546229963</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.9802934191116166</v>
+        <v>0.9288751981357322</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.9745353132014025</v>
+        <v>0.9478190350949965</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.05694234437758</v>
+        <v>1.009864920081608</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.058463518587068</v>
+        <v>1.004140025421362</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1.018869957527363</v>
+        <v>1.004232464634543</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>1</v>
+        <v>1.000715791962842</v>
       </c>
       <c r="R7" s="22" t="n">
-        <v>1.064375640239544</v>
+        <v>1.010093832662546</v>
       </c>
       <c r="S7" s="22" t="n">
-        <v>1.072270339135271</v>
+        <v>1.006653640368098</v>
       </c>
       <c r="T7" s="22" t="n">
-        <v>1.0167979510007</v>
+        <v>1.004334213518077</v>
       </c>
       <c r="U7" s="22" t="n">
-        <v>1</v>
+        <v>1.000729847320569</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.009434978763681</v>
+        <v>1.002474128298692</v>
       </c>
     </row>
     <row r="8">
@@ -7087,62 +7087,62 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.8833655761354835</v>
+        <v>0.9618127287600843</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.8620967053971975</v>
+        <v>0.9522887336334179</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.987576356958729</v>
+        <v>0.9524373237559703</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.9798418216552337</v>
+        <v>0.9478936924040413</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.8784700994351858</v>
+        <v>0.9292397001195428</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.8525819957726966</v>
+        <v>0.9154711314689802</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.9878053336983519</v>
+        <v>0.8839718432271739</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.9802934191116166</v>
+        <v>0.9295531352102347</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.9836938858700579</v>
+        <v>0.9501600762405823</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.052533675429604</v>
+        <v>1.009379283794949</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.063287700228386</v>
+        <v>1.01550183458678</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.000160997150751</v>
+        <v>1.027958200397528</v>
       </c>
       <c r="Q8" s="22" t="n">
-        <v>1</v>
+        <v>1.000531821043472</v>
       </c>
       <c r="R8" s="22" t="n">
-        <v>1.062253990121693</v>
+        <v>1.031722251042594</v>
       </c>
       <c r="S8" s="22" t="n">
-        <v>1.078970045988332</v>
+        <v>1.044863230770336</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1.000153249746679</v>
+        <v>1.088312474126056</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1</v>
+        <v>1.000562310763349</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.000080498575376</v>
+        <v>1.0142450107205</v>
       </c>
     </row>
     <row r="9">
@@ -7151,62 +7151,62 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.9297720165978698</v>
+        <v>0.9708338433007195</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.9166568232562547</v>
+        <v>0.9670509560610577</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.9877353539383484</v>
+        <v>0.9790657573196248</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.9798418216552337</v>
+        <v>0.9483978022166362</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.9331583683276269</v>
+        <v>0.9587172751654801</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.9199104351876906</v>
+        <v>0.9565421241036531</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.9879567146155095</v>
+        <v>0.962037583760336</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.9802934191116166</v>
+        <v>0.9300758329432681</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.9837727541480079</v>
+        <v>0.9634878001957162</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.014856843941841</v>
+        <v>1.003257678465502</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.019616180362795</v>
+        <v>1.004697214692052</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1.010145781607614</v>
+        <v>0.9951937481515489</v>
       </c>
       <c r="Q9" s="22" t="n">
-        <v>1.020030222812865</v>
+        <v>0.9908693432255548</v>
       </c>
       <c r="R9" s="22" t="n">
-        <v>1.01279046662858</v>
+        <v>1.003015970877369</v>
       </c>
       <c r="S9" s="22" t="n">
-        <v>1.01700851763684</v>
+        <v>1.003815770625789</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>1.009797440821804</v>
+        <v>0.9968295634126833</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1.019363114297128</v>
+        <v>0.9913348552166954</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.01508800221024</v>
+        <v>0.9930315456885519</v>
       </c>
     </row>
     <row r="10">
@@ -7215,62 +7215,62 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.9435854943499553</v>
+        <v>0.9739965078056205</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.9346381288320362</v>
+        <v>0.9715934020198307</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.9977567011255262</v>
+        <v>0.9743601207137521</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.9994682716643516</v>
+        <v>0.9397383073989577</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.9450938992969014</v>
+        <v>0.9616087385470098</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.935556748048893</v>
+        <v>0.9601920694431374</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.9976361620614589</v>
+        <v>0.9589875046064084</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.9992749526305977</v>
+        <v>0.922016591191362</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.9986117530089285</v>
+        <v>0.956736097985729</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.037930995044429</v>
+        <v>1.005762278109015</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1.04576109094074</v>
+        <v>1.008245078553113</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>1.000779952969796</v>
+        <v>1.000385902473499</v>
       </c>
       <c r="Q10" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="22" t="n">
-        <v>1.030328648208827</v>
+        <v>1.005892639561371</v>
       </c>
       <c r="S10" s="22" t="n">
-        <v>1.037518327422335</v>
+        <v>1.007365799451713</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1.001106491546716</v>
+        <v>1.000744124211477</v>
       </c>
       <c r="U10" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1.000389976484898</v>
+        <v>1.00019295123675</v>
       </c>
     </row>
     <row r="11">
@@ -7279,62 +7279,62 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.9793766310601382</v>
+        <v>0.979608946560806</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.9774081892422019</v>
+        <v>0.9796042659411704</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.9985349044277024</v>
+        <v>0.9747361286944147</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.9994682716643516</v>
+        <v>0.9397383073989577</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.973757319692986</v>
+        <v>0.9672751522423315</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.9706572724443667</v>
+        <v>0.9672646516617809</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.9987400380414776</v>
+        <v>0.9597011104270894</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>0.9992749526305977</v>
+        <v>0.922016591191362</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.9990013700347623</v>
+        <v>0.9569173267302139</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.014177605562906</v>
+        <v>1.00011368431976</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1.016178399446957</v>
+        <v>1.000111952430971</v>
       </c>
       <c r="P11" s="22" t="n">
-        <v>1.000054564922584</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="22" t="n">
-        <v>1.000083078669977</v>
+        <v>1</v>
       </c>
       <c r="R11" s="22" t="n">
-        <v>1.019885005390295</v>
+        <v>1.000148214200218</v>
       </c>
       <c r="S11" s="22" t="n">
-        <v>1.023098357276445</v>
+        <v>1.000154284593505</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>1.000037263946832</v>
+        <v>1</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>1.000074527893664</v>
+        <v>1</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1.000068821796281</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -7343,62 +7343,62 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.9932618466328367</v>
+        <v>0.9797203127375261</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.9932210893504893</v>
+        <v>0.9797139350201325</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.9985893894074603</v>
+        <v>0.9747361286944147</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.9995513061590457</v>
+        <v>0.9397383073989577</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.9931204892439206</v>
+        <v>0.9674185161554116</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.9930778609162666</v>
+        <v>0.967413885695374</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.9987772550371542</v>
+        <v>0.9597011104270894</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>0.9993494264880087</v>
+        <v>0.922016591191362</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.9990701162470456</v>
+        <v>0.9569173267302139</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1.000592773551522</v>
+        <v>1.000044028674791</v>
       </c>
       <c r="O12" s="22" t="n">
-        <v>1.000633833334307</v>
+        <v>1.000050538736522</v>
       </c>
       <c r="P12" s="22" t="n">
-        <v>1.001218595297796</v>
+        <v>1.000083556128415</v>
       </c>
       <c r="Q12" s="22" t="n">
-        <v>1</v>
+        <v>1.000171989139739</v>
       </c>
       <c r="R12" s="22" t="n">
-        <v>1.000515371034694</v>
+        <v>1.000057440474014</v>
       </c>
       <c r="S12" s="22" t="n">
-        <v>1.000558318620918</v>
+        <v>1.000062227180182</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>1.000884869857977</v>
+        <v>1.000096334097829</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>1</v>
+        <v>1.000192668195658</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1.000609297648898</v>
+        <v>1.000127772634077</v>
       </c>
     </row>
     <row r="13">
@@ -7407,62 +7407,62 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.9938506259852564</v>
+        <v>0.9797634485245618</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.9938506259852564</v>
+        <v>0.9797634485245618</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>0.9998062657418216</v>
+        <v>0.9748175738715543</v>
       </c>
       <c r="E13" s="34" t="n">
-        <v>0.9995513061590457</v>
+        <v>0.9398999321820272</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>0.9936323147780378</v>
+        <v>0.9674740851335492</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>0.9936323147780378</v>
+        <v>0.9674740851335492</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>0.9996610429249698</v>
+        <v>0.9597935623677476</v>
       </c>
       <c r="I13" s="34" t="n">
-        <v>0.9993494264880087</v>
+        <v>0.9221942344643534</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>0.9996787696941146</v>
+        <v>0.9570403661897499</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
         <v/>
       </c>
       <c r="N13" s="22" t="n">
-        <v>1.000170598316962</v>
+        <v>1.000984611122114</v>
       </c>
       <c r="O13" s="22" t="n">
-        <v>1.000170598316962</v>
+        <v>1.000984611122114</v>
       </c>
       <c r="P13" s="22" t="n">
-        <v>1.000011276978788</v>
+        <v>1.001714195392194</v>
       </c>
       <c r="Q13" s="22" t="n">
-        <v>1</v>
+        <v>1.004825593638381</v>
       </c>
       <c r="R13" s="22" t="n">
-        <v>1.000200939168652</v>
+        <v>1.001751782609629</v>
       </c>
       <c r="S13" s="22" t="n">
-        <v>1.000200939168652</v>
+        <v>1.001751782609629</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>1.000013577854669</v>
+        <v>1.00289493609793</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>1</v>
+        <v>1.005789872195861</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1.000005638489394</v>
+        <v>1.003269894515288</v>
       </c>
     </row>
     <row r="14">
@@ -7471,62 +7471,62 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.9940201752293606</v>
+        <v>0.9807281345130202</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.9940201752293606</v>
+        <v>0.9807281345130202</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>0.9998175405358726</v>
+        <v>0.9764886016649141</v>
       </c>
       <c r="E14" s="34" t="n">
-        <v>0.9995513061590457</v>
+        <v>0.9444355073154798</v>
       </c>
       <c r="F14" s="34" t="n">
-        <v>0.9938319744293154</v>
+        <v>0.9691688894111532</v>
       </c>
       <c r="G14" s="34" t="n">
-        <v>0.9938319744293154</v>
+        <v>0.9691688894111532</v>
       </c>
       <c r="H14" s="34" t="n">
-        <v>0.999674616177329</v>
+        <v>0.9625721033980073</v>
       </c>
       <c r="I14" s="34" t="n">
-        <v>0.9993494264880087</v>
+        <v>0.9275336212216621</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>0.9996844056216795</v>
+        <v>0.960194630896373</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
         <v/>
       </c>
       <c r="N14" s="22" t="n">
-        <v>1.005901858193475</v>
+        <v>1.000077988830465</v>
       </c>
       <c r="O14" s="22" t="n">
-        <v>1.005901858193475</v>
+        <v>1.000077988830465</v>
       </c>
       <c r="P14" s="22" t="n">
-        <v>1.000011818344259</v>
+        <v>1.000189080718321</v>
       </c>
       <c r="Q14" s="22" t="n">
-        <v>1.000038753297608</v>
+        <v>1.000449585586512</v>
       </c>
       <c r="R14" s="22" t="n">
-        <v>1.006021936686555</v>
+        <v>1.00007545720027</v>
       </c>
       <c r="S14" s="22" t="n">
-        <v>1.006021936686555</v>
+        <v>1.00007545720027</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>1.000029700941891</v>
+        <v>1.000138338200496</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>1.000059401883782</v>
+        <v>1.000276676400991</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>1.000025285820934</v>
+        <v>1.000319333152417</v>
       </c>
     </row>
     <row r="15">
@@ -7535,62 +7535,62 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>0.9998867413450176</v>
+        <v>0.9808046203532345</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>0.9998867413450176</v>
+        <v>0.9808046203532345</v>
       </c>
       <c r="D15" s="34" t="n">
-        <v>0.9998293567237631</v>
+        <v>0.9766732368311489</v>
       </c>
       <c r="E15" s="34" t="n">
-        <v>0.9995900420682883</v>
+        <v>0.9448601119069593</v>
       </c>
       <c r="F15" s="34" t="n">
-        <v>0.9998167676564024</v>
+        <v>0.9692420201821373</v>
       </c>
       <c r="G15" s="34" t="n">
-        <v>0.9998167676564024</v>
+        <v>0.9692420201821373</v>
       </c>
       <c r="H15" s="34" t="n">
-        <v>0.999704307455014</v>
+        <v>0.9627052638906386</v>
       </c>
       <c r="I15" s="34" t="n">
-        <v>0.9994087897264987</v>
+        <v>0.9277902478857797</v>
       </c>
       <c r="J15" s="34" t="n">
-        <v>0.9997096850739919</v>
+        <v>0.9605033235096724</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
         <v/>
       </c>
       <c r="N15" s="22" t="n">
-        <v>1.000107814703923</v>
+        <v>1.00011479534898</v>
       </c>
       <c r="O15" s="22" t="n">
-        <v>1.000107814703923</v>
+        <v>1.00011479534898</v>
       </c>
       <c r="P15" s="22" t="n">
-        <v>1.000170672400335</v>
+        <v>1.000228767702458</v>
       </c>
       <c r="Q15" s="22" t="n">
-        <v>1.000410126066146</v>
+        <v>1</v>
       </c>
       <c r="R15" s="22" t="n">
-        <v>1.000177468002957</v>
+        <v>1.000095193859587</v>
       </c>
       <c r="S15" s="22" t="n">
-        <v>1.000177468002957</v>
+        <v>1.000095193859587</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>1.000295780004928</v>
+        <v>1.000158656432645</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>1.000591560009856</v>
+        <v>1</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>1.00029039923324</v>
+        <v>1.000114383851229</v>
       </c>
     </row>
     <row r="16">
@@ -7599,62 +7599,62 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>0.9999945438379919</v>
+        <v>0.9809172121619086</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>0.9999945438379919</v>
+        <v>0.9809172121619086</v>
       </c>
       <c r="D16" s="34" t="n">
-        <v>1</v>
+        <v>0.9768966681235907</v>
       </c>
       <c r="E16" s="34" t="n">
-        <v>1</v>
+        <v>0.9448601119069593</v>
       </c>
       <c r="F16" s="34" t="n">
-        <v>0.9999942031414812</v>
+        <v>0.9693342860709123</v>
       </c>
       <c r="G16" s="34" t="n">
-        <v>0.9999942031414812</v>
+        <v>0.9693342860709123</v>
       </c>
       <c r="H16" s="34" t="n">
-        <v>1</v>
+        <v>0.9628580032734959</v>
       </c>
       <c r="I16" s="34" t="n">
-        <v>1</v>
+        <v>0.9277902478857797</v>
       </c>
       <c r="J16" s="34" t="n">
-        <v>1</v>
+        <v>0.9606113580617817</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
         <v/>
       </c>
       <c r="N16" s="22" t="n">
-        <v>1.000005456191778</v>
+        <v>1.007826287623</v>
       </c>
       <c r="O16" s="22" t="n">
-        <v>1.000005456191778</v>
+        <v>1.007826287623</v>
       </c>
       <c r="P16" s="22" t="n">
-        <v>1</v>
+        <v>1.013521599771866</v>
       </c>
       <c r="Q16" s="22" t="n">
-        <v>1</v>
+        <v>1.03588025370783</v>
       </c>
       <c r="R16" s="22" t="n">
-        <v>1.000005796892123</v>
+        <v>1.016097989007316</v>
       </c>
       <c r="S16" s="22" t="n">
-        <v>1.000005796892123</v>
+        <v>1.016097989007316</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>1</v>
+        <v>1.024146983510974</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>1</v>
+        <v>1.048293967021949</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>1</v>
+        <v>1.024700926739848</v>
       </c>
     </row>
     <row r="17">
@@ -7663,41 +7663,41 @@
         <v/>
       </c>
       <c r="B17" s="34" t="n">
-        <v>1</v>
+        <v>0.9885941523986389</v>
       </c>
       <c r="C17" s="34" t="n">
-        <v>1</v>
+        <v>0.9885941523986389</v>
       </c>
       <c r="D17" s="34" t="n">
-        <v>1</v>
+        <v>0.9901058738884271</v>
       </c>
       <c r="E17" s="34" t="n">
-        <v>1</v>
+        <v>0.9787619324405894</v>
       </c>
       <c r="F17" s="34" t="n">
-        <v>1</v>
+        <v>0.9849386187524966</v>
       </c>
       <c r="G17" s="34" t="n">
-        <v>1</v>
+        <v>0.9849386187524966</v>
       </c>
       <c r="H17" s="34" t="n">
-        <v>1</v>
+        <v>0.9861081196019507</v>
       </c>
       <c r="I17" s="34" t="n">
-        <v>1</v>
+        <v>0.9725969195204613</v>
       </c>
       <c r="J17" s="34" t="n">
-        <v>1</v>
+        <v>0.9844012232133308</v>
       </c>
       <c r="M17">
         <f>+M16+1</f>
         <v/>
       </c>
       <c r="N17" s="22" t="n">
-        <v>1</v>
+        <v>1.000150887798121</v>
       </c>
       <c r="O17" s="22" t="n">
-        <v>1</v>
+        <v>1.000150887798121</v>
       </c>
       <c r="P17" s="22" t="n">
         <v>1</v>
@@ -7706,10 +7706,10 @@
         <v>1</v>
       </c>
       <c r="R17" s="22" t="n">
-        <v>1</v>
+        <v>1.000125885978373</v>
       </c>
       <c r="S17" s="22" t="n">
-        <v>1</v>
+        <v>1.000125885978373</v>
       </c>
       <c r="T17" s="22" t="n">
         <v>1</v>
@@ -7727,41 +7727,41 @@
         <v/>
       </c>
       <c r="B18" s="34" t="n">
-        <v>1</v>
+        <v>0.9887433191935299</v>
       </c>
       <c r="C18" s="34" t="n">
-        <v>1</v>
+        <v>0.9887433191935299</v>
       </c>
       <c r="D18" s="34" t="n">
-        <v>1</v>
+        <v>0.9901058738884271</v>
       </c>
       <c r="E18" s="34" t="n">
-        <v>1</v>
+        <v>0.9787619324405894</v>
       </c>
       <c r="F18" s="34" t="n">
-        <v>1</v>
+        <v>0.9850626087141557</v>
       </c>
       <c r="G18" s="34" t="n">
-        <v>1</v>
+        <v>0.9850626087141557</v>
       </c>
       <c r="H18" s="34" t="n">
-        <v>1</v>
+        <v>0.9861081196019507</v>
       </c>
       <c r="I18" s="34" t="n">
-        <v>1</v>
+        <v>0.9725969195204613</v>
       </c>
       <c r="J18" s="34" t="n">
-        <v>1</v>
+        <v>0.9844012232133308</v>
       </c>
       <c r="M18">
         <f>+M17+1</f>
         <v/>
       </c>
       <c r="N18" s="22" t="n">
-        <v>1</v>
+        <v>1.001378067157014</v>
       </c>
       <c r="O18" s="22" t="n">
-        <v>1</v>
+        <v>1.001378067157014</v>
       </c>
       <c r="P18" s="22" t="n">
         <v>1</v>
@@ -7770,10 +7770,10 @@
         <v>1</v>
       </c>
       <c r="R18" s="22" t="n">
-        <v>1</v>
+        <v>1.001061364910764</v>
       </c>
       <c r="S18" s="22" t="n">
-        <v>1</v>
+        <v>1.001061364910764</v>
       </c>
       <c r="T18" s="22" t="n">
         <v>1</v>
@@ -7791,62 +7791,62 @@
         <v/>
       </c>
       <c r="B19" s="34" t="n">
-        <v>1</v>
+        <v>0.9901058738884271</v>
       </c>
       <c r="C19" s="34" t="n">
-        <v>1</v>
+        <v>0.9901058738884271</v>
       </c>
       <c r="D19" s="34" t="n">
-        <v>1</v>
+        <v>0.9901058738884271</v>
       </c>
       <c r="E19" s="34" t="n">
-        <v>1</v>
+        <v>0.9787619324405894</v>
       </c>
       <c r="F19" s="34" t="n">
-        <v>1</v>
+        <v>0.9861081196019507</v>
       </c>
       <c r="G19" s="34" t="n">
-        <v>1</v>
+        <v>0.9861081196019507</v>
       </c>
       <c r="H19" s="34" t="n">
-        <v>1</v>
+        <v>0.9861081196019507</v>
       </c>
       <c r="I19" s="34" t="n">
-        <v>1</v>
+        <v>0.9725969195204613</v>
       </c>
       <c r="J19" s="34" t="n">
-        <v>1</v>
+        <v>0.9844012232133308</v>
       </c>
       <c r="M19">
         <f>+M18+1</f>
         <v/>
       </c>
       <c r="N19" s="22" t="n">
-        <v>1</v>
+        <v>1.009992998094957</v>
       </c>
       <c r="O19" s="22" t="n">
-        <v>1</v>
+        <v>1.009992998094957</v>
       </c>
       <c r="P19" s="22" t="n">
-        <v>1</v>
+        <v>1.009992998094957</v>
       </c>
       <c r="Q19" s="22" t="n">
-        <v>1</v>
+        <v>1.021698910486284</v>
       </c>
       <c r="R19" s="22" t="n">
-        <v>1</v>
+        <v>1.014087583422046</v>
       </c>
       <c r="S19" s="22" t="n">
-        <v>1</v>
+        <v>1.014087583422046</v>
       </c>
       <c r="T19" s="22" t="n">
-        <v>1</v>
+        <v>1.014087583422046</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>1</v>
+        <v>1.028175166844092</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>1</v>
+        <v>1.01584595429062</v>
       </c>
     </row>
     <row r="20">
@@ -8234,7 +8234,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45322</v>
+        <v>45657</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>21037.8</v>
+        <v>32539.34999999999</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8582,7 +8582,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>21676.71333333333</v>
+        <v>17768.02416666667</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8605,76 +8605,76 @@
         <v/>
       </c>
       <c r="S8" s="22" t="n">
-        <v>1021.9</v>
+        <v>629.03</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>5783.759999999999</v>
+        <v>20021.35</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>18710.75</v>
+        <v>24043.78</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>20689.53</v>
+        <v>25901.45</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>20777.19</v>
+        <v>30567.88</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>20828.2</v>
+        <v>32242.89</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>20828.2</v>
+        <v>32276.98999999999</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>20890.51</v>
+        <v>32276.98999999999</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>20890.51</v>
+        <v>32292.15999999999</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>20988.9</v>
+        <v>32292.15999999999</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>20988.9</v>
+        <v>32299.37999999999</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>20988.9</v>
+        <v>32299.37999999999</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>21037.8</v>
+        <v>32299.37999999999</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>21037.8</v>
+        <v>32299.37999999999</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>21037.8</v>
+        <v>32299.37999999999</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>21037.8</v>
+        <v>32299.37999999999</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>21037.8</v>
+        <v>32299.37999999999</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>21037.8</v>
+        <v>32539.34999999999</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>21037.8</v>
+        <v>32539.34999999999</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>21037.8</v>
+        <v>32539.34999999999</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>21037.8</v>
+        <v>32539.34999999999</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>21037.8</v>
+        <v>32539.34999999999</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>21037.8</v>
+        <v>32539.34999999999</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>21037.8</v>
+        <v>32539.34999999999</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8685,7 +8685,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>25110.55</v>
+        <v>28029.73</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8709,7 +8709,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>21980.80333333333</v>
+        <v>17002.06833333333</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8732,73 +8732,73 @@
         <v/>
       </c>
       <c r="S9" s="22" t="n">
-        <v>732.38</v>
+        <v>580.55</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>18792.43</v>
+        <v>16559.63</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>21819.63</v>
+        <v>17709.06</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>21835.22</v>
+        <v>25274.72</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>21935.35</v>
+        <v>25393.72</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>23511.96</v>
+        <v>25453.06</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>23511.96</v>
+        <v>27971.77</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>23511.96</v>
+        <v>27997.49</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>23524.78</v>
+        <v>28001.53</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>23524.78</v>
+        <v>28001.53</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>23553.24</v>
+        <v>28001.53</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>23553.24</v>
+        <v>28001.53</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>23553.24</v>
+        <v>28001.53</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>25109.24</v>
+        <v>28001.53</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>25109.24</v>
+        <v>28001.53</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>25110.55</v>
+        <v>28001.53</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>25110.55</v>
+        <v>28029.73</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>25110.55</v>
+        <v>28029.73</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>25110.55</v>
+        <v>28029.73</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>25110.55</v>
+        <v>28029.73</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>25110.55</v>
+        <v>28029.73</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>25110.55</v>
+        <v>28029.73</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>25110.55</v>
+        <v>28029.73</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8812,7 +8812,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>17901.98</v>
+        <v>26616.38</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8836,7 +8836,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>21687.915</v>
+        <v>15696.41666666667</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8859,70 +8859,70 @@
         <v/>
       </c>
       <c r="S10" s="22" t="n">
-        <v>247.8</v>
+        <v>715.77</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>4455.22</v>
+        <v>18764.86</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>17732.2</v>
+        <v>23939.82</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>17753.51</v>
+        <v>24512.97</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>17877.77</v>
+        <v>26195.33</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>17877.12</v>
+        <v>26563.21</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>17877.12</v>
+        <v>26611.89</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>17877.12</v>
+        <v>26611.89</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>17877.12</v>
+        <v>26611.89</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>17877.12</v>
+        <v>26611.89</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>17877.12</v>
+        <v>26611.89</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>17901.98</v>
+        <v>26616.38</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>17901.98</v>
+        <v>26616.38</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>17901.98</v>
+        <v>26616.38</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>17901.98</v>
+        <v>26616.38</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>17901.98</v>
+        <v>26616.38</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>17901.98</v>
+        <v>26616.38</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>17901.98</v>
+        <v>26616.38</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>17901.98</v>
+        <v>26616.38</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>17901.98</v>
+        <v>26616.38</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>17901.98</v>
+        <v>26616.38</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>17901.98</v>
+        <v>26616.38</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8939,7 +8939,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>30095.79</v>
+        <v>20721.66</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8963,7 +8963,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>20617.48166666667</v>
+        <v>15156.19916666667</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8986,67 +8986,67 @@
         <v/>
       </c>
       <c r="S11" s="22" t="n">
-        <v>692.3</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>20336.37</v>
+        <v>16775.04</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>24735.87</v>
+        <v>17289.49</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>24955.4</v>
+        <v>18988.22</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>26594.79</v>
+        <v>19015.42</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>26594.79</v>
+        <v>19071.34</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>26594.79</v>
+        <v>19071.34</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>28539.79</v>
+        <v>19071.34</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>28539.79</v>
+        <v>19106.66</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>30095.79</v>
+        <v>19106.66</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>30095.79</v>
+        <v>19106.66</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>30095.79</v>
+        <v>19106.66</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>30095.79</v>
+        <v>19106.66</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>30095.79</v>
+        <v>19106.66</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>30095.79</v>
+        <v>19106.66</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>30095.79</v>
+        <v>19106.66</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>30095.79</v>
+        <v>19106.66</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>30095.79</v>
+        <v>19106.66</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>30095.79</v>
+        <v>20721.66</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>30095.79</v>
+        <v>20721.66</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>30095.79</v>
+        <v>20721.66</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9066,7 +9066,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>22434.15</v>
+        <v>25687.85</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9090,7 +9090,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>20047.02</v>
+        <v>15001.12916666667</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9113,64 +9113,64 @@
         <v/>
       </c>
       <c r="S12" s="22" t="n">
-        <v>1073.34</v>
+        <v>1042.83</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>7433.26</v>
+        <v>19121.31</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>13656.72</v>
+        <v>20836.61</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>17405.03</v>
+        <v>24133.55</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>16888.06</v>
+        <v>24297.02</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>16888.06</v>
+        <v>24297.02</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>16888.06</v>
+        <v>24297.02</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>17471.56</v>
+        <v>24297.02</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>17566.29</v>
+        <v>25663.42</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>17568.45</v>
+        <v>25663.42</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>22434.15</v>
+        <v>25663.42</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>22434.15</v>
+        <v>25663.42</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>22434.15</v>
+        <v>25663.42</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>22434.15</v>
+        <v>25663.42</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>22434.15</v>
+        <v>25687.85</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>22434.15</v>
+        <v>25687.85</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>22434.15</v>
+        <v>25687.85</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>22434.15</v>
+        <v>25687.85</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>22434.15</v>
+        <v>25687.85</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>22434.15</v>
+        <v>25687.85</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9193,7 +9193,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>36676.52</v>
+        <v>29633.19</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9217,7 +9217,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>19695.69333333333</v>
+        <v>14998.66666666667</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9240,61 +9240,61 @@
         <v/>
       </c>
       <c r="S13" s="22" t="n">
-        <v>475.09</v>
+        <v>512.04</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>19307.65</v>
+        <v>17308.98</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>21797.34</v>
+        <v>27491.02</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>22255.57</v>
+        <v>27810.02</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>24093.24</v>
+        <v>27886.26</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>24093.24</v>
+        <v>29525.37</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>31116.84</v>
+        <v>29525.37</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>31197</v>
+        <v>29525.37</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>31226.94</v>
+        <v>29525.37</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>36676.52</v>
+        <v>29525.37</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>36676.52</v>
+        <v>29525.37</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>36676.52</v>
+        <v>29525.37</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>36676.52</v>
+        <v>29633.19</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>36676.52</v>
+        <v>29633.19</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>36676.52</v>
+        <v>29633.19</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>36676.52</v>
+        <v>29633.19</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>36676.52</v>
+        <v>29633.19</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>36676.52</v>
+        <v>29633.19</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>36676.52</v>
+        <v>29633.19</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9320,7 +9320,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>35169.43</v>
+        <v>12762.01</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9344,7 +9344,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>19467.21333333334</v>
+        <v>14638.6575</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9367,58 +9367,58 @@
         <v/>
       </c>
       <c r="S14" s="22" t="n">
-        <v>1701.57</v>
+        <v>332.88</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>9760.860000000001</v>
+        <v>7231.88</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>12143.34</v>
+        <v>11352.11</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>14199.64</v>
+        <v>11121.29</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>16109.55</v>
+        <v>11121.29</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>16582.95</v>
+        <v>11147.01</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>16596.68</v>
+        <v>11147.01</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>27898.08</v>
+        <v>11147.01</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>29461.32</v>
+        <v>11147.01</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>35169.43</v>
+        <v>11147.01</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>35169.43</v>
+        <v>11147.01</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>35169.43</v>
+        <v>11147.01</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>35169.43</v>
+        <v>11147.01</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>35169.43</v>
+        <v>11147.01</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>35169.43</v>
+        <v>11147.01</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>35169.43</v>
+        <v>12762.01</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>35169.43</v>
+        <v>12762.01</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>35169.43</v>
+        <v>12762.01</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9447,7 +9447,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>31659.59</v>
+        <v>12786.84</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9471,7 +9471,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>19273.41666666667</v>
+        <v>13948.4575</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9494,55 +9494,55 @@
         <v/>
       </c>
       <c r="S15" s="22" t="n">
-        <v>1233.98</v>
+        <v>680.97</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>10643.11</v>
+        <v>5141.67</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>13448.23</v>
+        <v>7810.51</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>13630.32</v>
+        <v>12440.16</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>14442.59</v>
+        <v>12523.67</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>17968.2</v>
+        <v>12763.21</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>23097.21</v>
+        <v>12763.21</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>29080.61</v>
+        <v>12763.21</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>31465.79</v>
+        <v>12763.21</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>31492.39</v>
+        <v>12763.21</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>31492.39</v>
+        <v>12786.84</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>31659.59</v>
+        <v>12786.84</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>31659.59</v>
+        <v>12786.84</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>31659.59</v>
+        <v>12786.84</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>31659.59</v>
+        <v>12786.84</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>31659.59</v>
+        <v>12786.84</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>31659.59</v>
+        <v>12786.84</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9574,7 +9574,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>20009.7</v>
+        <v>21076.98</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9598,7 +9598,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>18974.55</v>
+        <v>13651.49083333334</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9621,52 +9621,52 @@
         <v/>
       </c>
       <c r="S16" s="22" t="n">
-        <v>595.0699999999999</v>
+        <v>467.46</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>4686.19</v>
+        <v>10239.23</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>6969.27</v>
+        <v>11124.92</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>8726.619999999999</v>
+        <v>12861.9</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>8855.57</v>
+        <v>19428.93</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>13589.57</v>
+        <v>19428.93</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>19619.07</v>
+        <v>19428.93</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>19619.07</v>
+        <v>19428.93</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>19619.07</v>
+        <v>19428.93</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>20008.07</v>
+        <v>21059.5</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>20008.07</v>
+        <v>21059.5</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>20008.07</v>
+        <v>21059.5</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>20009.7</v>
+        <v>21059.5</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>20009.7</v>
+        <v>21076.98</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>20009.7</v>
+        <v>21076.98</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>20009.7</v>
+        <v>21076.98</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9701,7 +9701,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>15557.12</v>
+        <v>6482.110000000001</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9725,7 +9725,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>18635.42666666667</v>
+        <v>12926.25833333333</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9748,49 +9748,49 @@
         <v/>
       </c>
       <c r="S17" s="22" t="n">
-        <v>833.05</v>
+        <v>746.26</v>
       </c>
       <c r="T17" s="22" t="n">
-        <v>4556.98</v>
+        <v>4325.09</v>
       </c>
       <c r="U17" s="22" t="n">
-        <v>7504.379999999999</v>
+        <v>5076.23</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>10687.78</v>
+        <v>5708.450000000001</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>13468.54</v>
+        <v>6317.030000000001</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>15413.54</v>
+        <v>6317.030000000001</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>15413.54</v>
+        <v>6381.700000000001</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>15413.54</v>
+        <v>6381.700000000001</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>15427.14</v>
+        <v>6436.420000000001</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>15529.56</v>
+        <v>6460.280000000001</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>15529.56</v>
+        <v>6460.280000000001</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>15529.56</v>
+        <v>6460.280000000001</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>15529.56</v>
+        <v>6482.110000000001</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>15529.56</v>
+        <v>6482.110000000001</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>15557.12</v>
+        <v>6482.110000000001</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9828,7 +9828,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>9877.99</v>
+        <v>11338.64</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9852,7 +9852,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>18402.83333333333</v>
+        <v>12565.32333333333</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9875,46 +9875,46 @@
         <v/>
       </c>
       <c r="S18" s="22" t="n">
-        <v/>
+        <v>239.2</v>
       </c>
       <c r="T18" s="22" t="n">
-        <v>4191</v>
+        <v>5936.29</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v>7270.780000000001</v>
+        <v>7784.76</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>9165.810000000001</v>
+        <v>7935.5</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>9345.810000000001</v>
+        <v>9535.5</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>9498.060000000001</v>
+        <v>11150.5</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>9834.630000000001</v>
+        <v>11150.5</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>9875.43</v>
+        <v>11245.1</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>9876.23</v>
+        <v>11323.51</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>9876.23</v>
+        <v>11332.09</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>9876.23</v>
+        <v>11332.09</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>9876.23</v>
+        <v>11338.64</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>9876.23</v>
+        <v>11338.64</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>9877.99</v>
+        <v>11338.64</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9955,7 +9955,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>32299.37999999999</v>
+        <v>7087.529999999999</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9979,7 +9979,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>17768.02416666667</v>
+        <v>12121</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10005,43 +10005,43 @@
         <v/>
       </c>
       <c r="S19" s="22" t="n">
-        <v>629.03</v>
+        <v/>
       </c>
       <c r="T19" s="22" t="n">
-        <v>20021.35</v>
+        <v>3411.01</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>24043.78</v>
+        <v>4361.45</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>25901.45</v>
+        <v>4361.45</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>30567.88</v>
+        <v>4361.45</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>32242.89</v>
+        <v>4463.429999999999</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>32276.98999999999</v>
+        <v>4658.039999999999</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>32276.98999999999</v>
+        <v>6989.739999999999</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>32292.15999999999</v>
+        <v>6989.739999999999</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>32292.15999999999</v>
+        <v>6989.739999999999</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>32299.37999999999</v>
+        <v>6989.739999999999</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>32299.37999999999</v>
+        <v>6989.739999999999</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>32299.37999999999</v>
+        <v>7087.529999999999</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10085,7 +10085,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>28001.53</v>
+        <v>19761.97</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10109,7 +10109,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>17002.06833333333</v>
+        <v>11200.785</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10141,40 +10141,40 @@
         <v/>
       </c>
       <c r="S20" s="22" t="n">
-        <v>580.55</v>
+        <v>816.14</v>
       </c>
       <c r="T20" s="22" t="n">
-        <v>16559.63</v>
+        <v>18529.29</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v>17709.06</v>
+        <v>18538.02</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>25274.72</v>
+        <v>18538.02</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>25393.72</v>
+        <v>18538.02</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>25453.06</v>
+        <v>19390.94</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>27971.77</v>
+        <v>19743.74</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>27997.49</v>
+        <v>19761.97</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>28001.53</v>
+        <v>19761.97</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>28001.53</v>
+        <v>19761.97</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>28001.53</v>
+        <v>19761.97</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>28001.53</v>
+        <v>19761.97</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10221,7 +10221,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>26611.89</v>
+        <v>20650.65</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10245,7 +10245,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>15696.41666666667</v>
+        <v>11200.785</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10277,37 +10277,37 @@
         <v/>
       </c>
       <c r="S21" s="22" t="n">
-        <v>715.77</v>
+        <v/>
       </c>
       <c r="T21" s="22" t="n">
-        <v>18764.86</v>
+        <v>14065</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>23939.82</v>
+        <v>14065</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>24512.97</v>
+        <v>14065</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>26195.33</v>
+        <v>20159.73</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>26563.21</v>
+        <v>20650.65</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>26611.89</v>
+        <v>20650.65</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>26611.89</v>
+        <v>21201.8</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>26611.89</v>
+        <v>20650.65</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>26611.89</v>
+        <v>20650.65</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>26611.89</v>
+        <v>20650.65</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10357,7 +10357,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>19106.66</v>
+        <v>18900.4</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10381,7 +10381,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>15156.19916666667</v>
+        <v>11021.96333333333</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10413,34 +10413,34 @@
         <v/>
       </c>
       <c r="S22" s="22" t="n">
-        <v>66.40000000000001</v>
+        <v/>
       </c>
       <c r="T22" s="22" t="n">
-        <v>16775.04</v>
+        <v/>
       </c>
       <c r="U22" s="22" t="n">
-        <v>17289.49</v>
+        <v>15064.66</v>
       </c>
       <c r="V22" s="22" t="n">
-        <v>18988.22</v>
+        <v>18049.59</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v>19015.42</v>
+        <v>18752.3</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>19071.34</v>
+        <v>18763.09</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>19071.34</v>
+        <v>18868.57</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>19071.34</v>
+        <v>18900.4</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>19106.66</v>
+        <v>18900.4</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>19106.66</v>
+        <v>18900.4</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10493,7 +10493,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>25663.42</v>
+        <v>20260.38</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10517,7 +10517,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>15001.12916666667</v>
+        <v>10834.99333333333</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10549,31 +10549,31 @@
         <v/>
       </c>
       <c r="S23" s="22" t="n">
-        <v>1042.83</v>
+        <v/>
       </c>
       <c r="T23" s="22" t="n">
-        <v>19121.31</v>
+        <v/>
       </c>
       <c r="U23" s="22" t="n">
-        <v>20836.61</v>
+        <v>17660.55</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v>24133.55</v>
+        <v>18378.7</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>24297.02</v>
+        <v>20236.75</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>24297.02</v>
+        <v>20236.75</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>24297.02</v>
+        <v>20260.38</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>24297.02</v>
+        <v>20260.38</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>25663.42</v>
+        <v>20260.38</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10629,7 +10629,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>29525.37</v>
+        <v>20722.01</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10655,7 +10655,7 @@
         <v/>
       </c>
       <c r="I24" s="14" t="n">
-        <v>14998.66666666667</v>
+        <v>10854.00333333333</v>
       </c>
       <c r="J24" s="14">
         <f>100*$G24/$I24</f>
@@ -10687,28 +10687,28 @@
         <v/>
       </c>
       <c r="S24" s="22" t="n">
-        <v>512.04</v>
+        <v/>
       </c>
       <c r="T24" s="22" t="n">
-        <v>17308.98</v>
+        <v>3063.39</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>27491.02</v>
+        <v>19861.86</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>27810.02</v>
+        <v>20642.59</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>27886.26</v>
+        <v>20722.01</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>29525.37</v>
+        <v>20722.01</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>29525.37</v>
+        <v>20722.01</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>29525.37</v>
+        <v>20722.01</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10767,7 +10767,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>11147.01</v>
+        <v>18602.67</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10793,7 +10793,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v>14638.6575</v>
+        <v>10854.00333333333</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -10825,25 +10825,25 @@
         <v/>
       </c>
       <c r="S25" s="22" t="n">
-        <v>332.88</v>
+        <v>457.06</v>
       </c>
       <c r="T25" s="22" t="n">
-        <v>7231.88</v>
+        <v>3965.31</v>
       </c>
       <c r="U25" s="22" t="n">
-        <v>11352.11</v>
+        <v>18289.4</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v>11121.29</v>
+        <v>18638.12</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>11121.29</v>
+        <v>18654.65</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>11147.01</v>
+        <v>18583.68</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>11147.01</v>
+        <v>18602.67</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10905,7 +10905,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>12763.21</v>
+        <v>2546.99</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10931,7 +10931,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>13948.4575</v>
+        <v>9756.408333333333</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10963,22 +10963,22 @@
         <v/>
       </c>
       <c r="S26" s="22" t="n">
-        <v>680.97</v>
+        <v>139.78</v>
       </c>
       <c r="T26" s="22" t="n">
-        <v>5141.67</v>
+        <v>1844.54</v>
       </c>
       <c r="U26" s="22" t="n">
-        <v>7810.51</v>
+        <v>2322.21</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v>12440.16</v>
+        <v>2511.83</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>12523.67</v>
+        <v>2524.56</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>12763.21</v>
+        <v>2546.99</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11043,7 +11043,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>19428.93</v>
+        <v>4122.67</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11069,7 +11069,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>13651.49083333334</v>
+        <v>9756.408333333333</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11101,19 +11101,19 @@
         <v/>
       </c>
       <c r="S27" s="22" t="n">
-        <v>467.46</v>
+        <v>137.69</v>
       </c>
       <c r="T27" s="22" t="n">
-        <v>10239.23</v>
+        <v>1675.66</v>
       </c>
       <c r="U27" s="22" t="n">
-        <v>11124.92</v>
+        <v>3609.14</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v>12861.9</v>
+        <v>4050.95</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v>19428.93</v>
+        <v>4122.67</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11181,7 +11181,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>5708.450000000001</v>
+        <v>3547.76</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11207,7 +11207,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>12926.25833333333</v>
+        <v>9423.440833333332</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11239,16 +11239,16 @@
         <v/>
       </c>
       <c r="S28" s="22" t="n">
-        <v>746.26</v>
+        <v>1237.66</v>
       </c>
       <c r="T28" s="22" t="n">
-        <v>4325.09</v>
+        <v>2884.87</v>
       </c>
       <c r="U28" s="22" t="n">
-        <v>5076.23</v>
+        <v>3250.21</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>5708.450000000001</v>
+        <v>3547.76</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11319,7 +11319,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v>7784.76</v>
+        <v>3149.67</v>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11346,7 +11346,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>12565.32333333333</v>
+        <v>9324.3575</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>190</v>
@@ -11377,13 +11377,13 @@
         <v/>
       </c>
       <c r="S29" s="22" t="n">
-        <v>239.2</v>
+        <v>591.76</v>
       </c>
       <c r="T29" s="22" t="n">
-        <v>5936.29</v>
+        <v>2615.14</v>
       </c>
       <c r="U29" s="22" t="n">
-        <v>7784.76</v>
+        <v>3149.67</v>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11457,7 +11457,7 @@
         <v/>
       </c>
       <c r="B30" s="14" t="n">
-        <v>3411.01</v>
+        <v>653.9599999999999</v>
       </c>
       <c r="C30" s="14">
         <f>++'Completion Factors'!J8</f>
@@ -11484,7 +11484,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>12121</v>
+        <v>9139.9825</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>180</v>
@@ -11515,10 +11515,10 @@
         <v/>
       </c>
       <c r="S30" s="22" t="n">
-        <v/>
+        <v>55.04</v>
       </c>
       <c r="T30" s="22" t="n">
-        <v>3411.01</v>
+        <v>653.9599999999999</v>
       </c>
       <c r="U30" s="22" t="n">
         <v/>
@@ -11595,7 +11595,7 @@
         <v/>
       </c>
       <c r="B31" s="14" t="n">
-        <v>816.14</v>
+        <v/>
       </c>
       <c r="C31" s="14">
         <f>+'Completion Factors'!J7</f>
@@ -11622,7 +11622,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v>11200.785</v>
+        <v>9139.9825</v>
       </c>
       <c r="J31" s="20" t="n">
         <v>180</v>
@@ -11653,7 +11653,7 @@
         <v/>
       </c>
       <c r="S31" s="22" t="n">
-        <v>816.14</v>
+        <v/>
       </c>
       <c r="T31" s="22" t="n">
         <v/>

--- a/Process Results/Unified_IBNP_NFL.xlsx
+++ b/Process Results/Unified_IBNP_NFL.xlsx
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1883042443140392</v>
+        <v>0.008595823954498715</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.05349305617221676</v>
+        <v>0.01023635606809056</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.05140351448459358</v>
+        <v>0.02137690840838808</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.08331746879142916</v>
+        <v>0.009344633981974137</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6149340768078218</v>
+        <v>0.4738218540254645</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2785873446633348</v>
+        <v>0.4461932227140299</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4813756203248666</v>
+        <v>0.4005157287980681</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3834554997435399</v>
+        <v>0.4595926857833915</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8577439421616414</v>
+        <v>0.6685140583464535</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.876307664576183</v>
+        <v>0.6393101512455626</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.790512726905338</v>
+        <v>0.7537893463767251</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8669264372979876</v>
+        <v>0.653586041023942</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9445295175311124</v>
+        <v>0.7170990563744295</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.9137443805875076</v>
+        <v>0.6912040963450694</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.8303444778526691</v>
+        <v>0.8103247138834545</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.9288819477224254</v>
+        <v>0.7039135065401843</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9483142470717355</v>
+        <v>0.7391764411150531</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.944188836101795</v>
+        <v>0.7214659906033881</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9306834449164227</v>
+        <v>0.8750633033001392</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.9462470451566611</v>
+        <v>0.730213845276758</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9472156830310499</v>
+        <v>0.8482671533648973</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9484231562883982</v>
+        <v>0.9008121334477358</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9483624888210329</v>
+        <v>0.9174221281488396</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9478190350949965</v>
+        <v>0.8737503781761116</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9478936924040413</v>
+        <v>0.850999696014476</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9524373237559703</v>
+        <v>0.903389369473851</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.9522887336334179</v>
+        <v>0.9224301675601246</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.9501600762405823</v>
+        <v>0.8764123009293476</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3993,20 +3993,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9483978022166362</v>
+        <v>0.9981435257781511</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9790657573196248</v>
+        <v>0.9746991160982081</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9670509560610577</v>
+        <v>0.9684349303810249</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9634878001957162</v>
+        <v>0.9862820193199021</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4031,20 +4031,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9397383073989577</v>
+        <v>0.9981435257781511</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9743601207137521</v>
+        <v>0.995657897506835</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9715934020198307</v>
+        <v>0.9757948141507383</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.956736097985729</v>
+        <v>0.9968991622535139</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4069,20 +4069,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9397383073989577</v>
+        <v>0.9981435257781511</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9747361286944147</v>
+        <v>0.9956718060331722</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.9796042659411704</v>
+        <v>0.9851631979578588</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.9569173267302139</v>
+        <v>0.9969061338183114</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4107,20 +4107,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9397383073989577</v>
+        <v>0.9981435257781511</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9747361286944147</v>
+        <v>0.9960218518652952</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9797139350201325</v>
+        <v>0.9854885061954052</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9569173267302139</v>
+        <v>0.9970815601540002</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4145,20 +4145,20 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9398999321820272</v>
+        <v>1</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9748175738715543</v>
+        <v>0.9969755801112334</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9797634485245618</v>
+        <v>0.9861228692553679</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9570403661897499</v>
+        <v>0.9984854998133739</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4183,20 +4183,20 @@
         <v/>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9444355073154798</v>
+        <v>1</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9764886016649141</v>
+        <v>0.999207998862223</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.9807281345130202</v>
+        <v>0.9879537173597187</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>0.960194630896373</v>
+        <v>0.9996038425525369</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4221,20 +4221,20 @@
         <v/>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9448601119069593</v>
+        <v>1</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9766732368311489</v>
+        <v>0.999207998862223</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9808046203532345</v>
+        <v>0.9880500534066501</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.9605033235096724</v>
+        <v>0.9996038425525369</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -4259,20 +4259,20 @@
         <v/>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9448601119069593</v>
+        <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9768966681235907</v>
+        <v>0.999207998862223</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9809172121619086</v>
+        <v>0.9880500534066501</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9606113580617817</v>
+        <v>0.9996038425525369</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -4297,20 +4297,20 @@
         <v/>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.9787619324405894</v>
+        <v>1</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9901058738884271</v>
+        <v>0.999207998862223</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.9885941523986389</v>
+        <v>0.9994398850642966</v>
       </c>
       <c r="H22" s="4">
         <f>+I22/I23</f>
         <v/>
       </c>
       <c r="I22" s="5" t="n">
-        <v>0.9844012232133308</v>
+        <v>0.9996038425525369</v>
       </c>
       <c r="J22" s="5">
         <f>I22</f>
@@ -4335,20 +4335,20 @@
         <v/>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9787619324405894</v>
+        <v>1</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9901058738884271</v>
+        <v>0.999207998862223</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9887433191935299</v>
+        <v>0.9994398850642966</v>
       </c>
       <c r="H23" s="4">
         <f>+I23/I24</f>
         <v/>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9844012232133308</v>
+        <v>0.9996038425525369</v>
       </c>
       <c r="J23" s="5">
         <f>I23</f>
@@ -4373,20 +4373,20 @@
         <v/>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9787619324405894</v>
+        <v>1</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9901058738884271</v>
+        <v>1</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9901058738884271</v>
+        <v>1</v>
       </c>
       <c r="H24" s="4">
         <f>+I24/I25</f>
         <v/>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9844012232133308</v>
+        <v>1</v>
       </c>
       <c r="J24" s="5">
         <f>I24</f>
@@ -4833,40 +4833,40 @@
         <v>0</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>31.82892707819977</v>
+        <v>33.80396062807593</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>1.200907031743614</v>
+        <v>1.588251878504684</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>1.077261977941904</v>
+        <v>1.011603789164607</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>1.180160956239902</v>
+        <v>1.002741457934946</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>1.054796407209136</v>
+        <v>1.058778409152034</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>1.001057597504442</v>
+        <v>1</v>
       </c>
       <c r="H38" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>1.000469994259068</v>
+        <v>1</v>
       </c>
       <c r="J38" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>1.000223583680993</v>
+        <v>1</v>
       </c>
       <c r="L38" s="4" t="n">
         <v>1</v>
       </c>
       <c r="M38" s="4" t="n">
-        <v>1</v>
+        <v>1.003651774727971</v>
       </c>
       <c r="N38" s="4" t="n">
         <v>1</v>
@@ -4881,7 +4881,7 @@
         <v>1</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>1.007429554375347</v>
+        <v>1</v>
       </c>
       <c r="S38" s="4" t="n">
         <v>1</v>
@@ -4908,28 +4908,28 @@
         <v/>
       </c>
       <c r="B39" s="4" t="n">
-        <v>28.52403755059857</v>
+        <v>21.72518625330449</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>1.069411575017075</v>
+        <v>1.56973152209384</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>1.427219739500572</v>
+        <v>0.9796672160505845</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>1.004708261852159</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>1.002336798232004</v>
+        <v>1.002312681352613</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>1.098955096165255</v>
+        <v>1</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>1.000919498480075</v>
+        <v>1</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>1.000144298649629</v>
+        <v>1</v>
       </c>
       <c r="J39" s="4" t="n">
         <v>1</v>
@@ -4950,28 +4950,28 @@
         <v>1</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>1</v>
+        <v>1.144881901065846</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>1.001007087826987</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="W39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="X39" s="4" t="n">
         <v/>
@@ -4983,22 +4983,22 @@
         <v/>
       </c>
       <c r="B40" s="4" t="n">
-        <v>26.21632647358788</v>
+        <v>7.550508832988237</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>1.27577930237689</v>
+        <v>1.519060927675249</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>1.023941282766537</v>
+        <v>1.592746184308067</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1.068631422467371</v>
+        <v>1.006712936168024</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>1.014043724587551</v>
+        <v>1.019126981148497</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>1.001832609838947</v>
+        <v>1</v>
       </c>
       <c r="H40" s="4" t="n">
         <v>1</v>
@@ -5010,10 +5010,10 @@
         <v>1</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>1</v>
+        <v>1.001851415122058</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>1.000168721575206</v>
+        <v>1</v>
       </c>
       <c r="M40" s="4" t="n">
         <v>1</v>
@@ -5031,19 +5031,19 @@
         <v>1</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>1</v>
+        <v>1.004433464405592</v>
       </c>
       <c r="S40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="W40" t="n">
         <v/>
@@ -5058,19 +5058,19 @@
         <v/>
       </c>
       <c r="B41" s="4" t="n">
-        <v>252.6361445783132</v>
+        <v>21.90397039318872</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>1.03066758708176</v>
+        <v>1.086499668432099</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>1.098252175165375</v>
+        <v>1.156134156470339</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>1.001432467076956</v>
+        <v>1.510580085368414</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>1.00294077122672</v>
+        <v>1</v>
       </c>
       <c r="G41" s="4" t="n">
         <v>1</v>
@@ -5079,10 +5079,10 @@
         <v>1</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>1.001851993619746</v>
+        <v>1</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>1</v>
+        <v>1.0839248481517</v>
       </c>
       <c r="K41" s="4" t="n">
         <v>1</v>
@@ -5094,7 +5094,7 @@
         <v>1</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>1</v>
+        <v>1.000830029202973</v>
       </c>
       <c r="O41" s="4" t="n">
         <v>1</v>
@@ -5109,13 +5109,13 @@
         <v>1</v>
       </c>
       <c r="S41" s="4" t="n">
-        <v>1.084525500532275</v>
+        <v>1</v>
       </c>
       <c r="T41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="U41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="V41" s="4" t="n">
         <v/>
@@ -5133,31 +5133,31 @@
         <v/>
       </c>
       <c r="B42" s="4" t="n">
-        <v>18.33597997756106</v>
+        <v>5.795687829978828</v>
       </c>
       <c r="C42" s="4" t="n">
-        <v>1.089706196908057</v>
+        <v>1.173670374489317</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>1.158228233863378</v>
+        <v>1.124545184122863</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>1.006773557972201</v>
+        <v>1.106610375846333</v>
       </c>
       <c r="F42" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>1</v>
+        <v>1.01023740586953</v>
       </c>
       <c r="H42" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>1.056237349271639</v>
+        <v>1.008574517761725</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>1</v>
+        <v>1.003707029684203</v>
       </c>
       <c r="K42" s="4" t="n">
         <v>1</v>
@@ -5166,13 +5166,13 @@
         <v>1</v>
       </c>
       <c r="M42" s="4" t="n">
-        <v>1</v>
+        <v>1.00337911050295</v>
       </c>
       <c r="N42" s="4" t="n">
         <v>1</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>1.000951938595869</v>
+        <v>1</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>1</v>
@@ -5208,40 +5208,40 @@
         <v/>
       </c>
       <c r="B43" s="4" t="n">
-        <v>33.80396062807593</v>
+        <v>24.76450668896321</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>1.588251878504684</v>
+        <v>1.312048105313091</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>1.011603789164607</v>
+        <v>1.019394915686027</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>1.002741457934946</v>
+        <v>1.201946766832263</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>1.058778409152034</v>
+        <v>1.169591552135488</v>
       </c>
       <c r="G43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>1</v>
+        <v>1.008493537369769</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>1</v>
+        <v>1.006980648975115</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>1</v>
+        <v>1.00075856099741</v>
       </c>
       <c r="K43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>1</v>
+        <v>1.000578649000351</v>
       </c>
       <c r="M43" s="4" t="n">
-        <v>1.003651774727971</v>
+        <v>1</v>
       </c>
       <c r="N43" s="4" t="n">
         <v>1</v>
@@ -5283,25 +5283,25 @@
         <v/>
       </c>
       <c r="B44" s="4" t="n">
-        <v>21.72518625330449</v>
+        <v/>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1.56973152209384</v>
+        <v>1.27863887822082</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>0.9796672160505845</v>
+        <v>1</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1.002312681352613</v>
+        <v>1.023382132089099</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>1</v>
+        <v>1.043600997439189</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>1</v>
+        <v>1.500575349288542</v>
       </c>
       <c r="I44" s="4" t="n">
         <v>1</v>
@@ -5316,7 +5316,7 @@
         <v>1</v>
       </c>
       <c r="M44" s="4" t="n">
-        <v>1</v>
+        <v>1.013990506084633</v>
       </c>
       <c r="N44" s="4" t="n">
         <v>1</v>
@@ -5325,13 +5325,13 @@
         <v>1</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>1.144881901065846</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="S44" t="n">
         <v/>
@@ -5358,25 +5358,25 @@
         <v/>
       </c>
       <c r="B45" s="4" t="n">
-        <v>7.550508832988237</v>
+        <v>22.70356801529149</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>1.519060927675249</v>
+        <v>1.000471145953245</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>1.592746184308067</v>
+        <v>1</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>1.006712936168024</v>
+        <v>1</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>1.019126981148497</v>
+        <v>1.046009228601544</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>1</v>
+        <v>1.018194063825683</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>1</v>
+        <v>1.000923330635432</v>
       </c>
       <c r="I45" s="4" t="n">
         <v>1</v>
@@ -5385,13 +5385,13 @@
         <v>1</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>1.001851415122058</v>
+        <v>1</v>
       </c>
       <c r="L45" s="4" t="n">
         <v>1</v>
       </c>
       <c r="M45" s="4" t="n">
-        <v>1</v>
+        <v>1.005790414619595</v>
       </c>
       <c r="N45" s="4" t="n">
         <v>1</v>
@@ -5433,31 +5433,31 @@
         <v/>
       </c>
       <c r="B46" s="4" t="n">
-        <v>21.90397039318872</v>
+        <v/>
       </c>
       <c r="C46" s="4" t="n">
-        <v>1.086499668432099</v>
+        <v>1</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>1.156134156470339</v>
+        <v>1</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>1.510580085368414</v>
+        <v>1.43332598649129</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>1</v>
+        <v>1.024351516612574</v>
       </c>
       <c r="G46" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>1</v>
+        <v>1.026689232542317</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>1</v>
+        <v>0.9740045656500862</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>1.0839248481517</v>
+        <v>1</v>
       </c>
       <c r="K46" s="4" t="n">
         <v>1</v>
@@ -5466,16 +5466,16 @@
         <v>1</v>
       </c>
       <c r="M46" s="4" t="n">
-        <v>1</v>
+        <v>1.001549103781237</v>
       </c>
       <c r="N46" s="4" t="n">
-        <v>1.000830029202973</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q46" s="4" t="n">
         <v/>
@@ -5508,40 +5508,40 @@
         <v/>
       </c>
       <c r="B47" s="4" t="n">
-        <v>5.795687829978828</v>
+        <v/>
       </c>
       <c r="C47" s="4" t="n">
-        <v>1.173670374489317</v>
+        <v/>
       </c>
       <c r="D47" s="4" t="n">
-        <v>1.124545184122863</v>
+        <v>1.196960966925241</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>1.106610375846333</v>
+        <v>1.038970574778683</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>1</v>
+        <v>1.000575942164518</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>1.01023740586953</v>
+        <v>1.005627007502143</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>1</v>
+        <v>1.001688523398754</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>1.008574517761725</v>
+        <v>1</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>1.003707029684203</v>
+        <v>1</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>1</v>
+        <v>1.000142988631874</v>
       </c>
       <c r="L47" s="4" t="n">
         <v>1</v>
       </c>
       <c r="M47" s="4" t="n">
-        <v>1.00337911050295</v>
+        <v>1</v>
       </c>
       <c r="N47" s="4" t="n">
         <v>1</v>
@@ -5583,43 +5583,43 @@
         <v/>
       </c>
       <c r="B48" s="4" t="n">
-        <v>24.81726588628763</v>
+        <v/>
       </c>
       <c r="C48" s="4" t="n">
-        <v>1.311384720086115</v>
+        <v/>
       </c>
       <c r="D48" s="4" t="n">
-        <v>1.019363474275379</v>
+        <v>1.040664078978288</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>1.201625606452019</v>
+        <v>1.101098010196586</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>1.169367101882439</v>
+        <v>1</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>1</v>
+        <v>1.001167677616218</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>1.008483924487691</v>
+        <v>1</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>1.006972814826013</v>
+        <v>1</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>1.000757715584655</v>
+        <v>1.000061203195597</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>1</v>
+        <v>1.001688907402271</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>1.000578004586974</v>
+        <v>1</v>
       </c>
       <c r="M48" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="N48" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O48" t="n">
         <v/>
@@ -5661,25 +5661,25 @@
         <v/>
       </c>
       <c r="C49" s="4" t="n">
-        <v>1.27863887822082</v>
+        <v>6.483621086443449</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>1</v>
+        <v>1.039308000358476</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>1</v>
+        <v>1.003847385429832</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>1.023382132089099</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>1.043600997439189</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1.500575349288542</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>1</v>
+        <v>1.079101882491129</v>
       </c>
       <c r="J49" s="4" t="n">
         <v>1</v>
@@ -5688,10 +5688,10 @@
         <v>1</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>1</v>
+        <v>1.005233628309086</v>
       </c>
       <c r="M49" s="4" t="n">
-        <v>1.013990506084633</v>
+        <v>1</v>
       </c>
       <c r="N49" t="n">
         <v/>
@@ -5733,25 +5733,25 @@
         <v/>
       </c>
       <c r="B50" s="4" t="n">
-        <v>22.70356801529149</v>
+        <v>8.675688093466942</v>
       </c>
       <c r="C50" s="4" t="n">
-        <v>1.000471145953245</v>
+        <v>4.612350610671045</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1</v>
+        <v>1.019066781851783</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>1</v>
+        <v>1.00088689202559</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1.046009228601544</v>
+        <v>0.9961955866231743</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>1.018194063825683</v>
+        <v>1.00102186434549</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>1.000923330635432</v>
+        <v>1.089350077166342</v>
       </c>
       <c r="I50" s="4" t="n">
         <v>1</v>
@@ -5808,34 +5808,34 @@
         <v/>
       </c>
       <c r="B51" s="4" t="n">
-        <v/>
+        <v>13.19602232078981</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>1</v>
+        <v>1.258964294620881</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>1</v>
+        <v>1.081654975217573</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>1.43332598649129</v>
+        <v>1.00506801813817</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>1.024351516612574</v>
+        <v>1.008884716544665</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>1</v>
+        <v>1.016431159918178</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>1.026689232542317</v>
+        <v>1.002197895582578</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>0.9740045656500862</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L51" t="n">
         <v/>
@@ -5883,25 +5883,25 @@
         <v/>
       </c>
       <c r="B52" s="4" t="n">
-        <v/>
+        <v>12.16980172852059</v>
       </c>
       <c r="C52" s="4" t="n">
-        <v/>
+        <v>2.153861761932612</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>1.19814121261283</v>
+        <v>1.12241420393778</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>1.038932186271267</v>
+        <v>1.017704489070465</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>1.000575396084747</v>
+        <v>1.066507869899846</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>1.005621675321069</v>
+        <v>1.001469230314361</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>1.001686932290047</v>
+        <v>1</v>
       </c>
       <c r="I52" s="4" t="n">
         <v>1</v>
@@ -5958,25 +5958,25 @@
         <v/>
       </c>
       <c r="B53" s="4" t="n">
-        <v/>
+        <v>2.3309067110515</v>
       </c>
       <c r="C53" s="4" t="n">
-        <v/>
+        <v>1.1266400219074</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>1.040664078978288</v>
+        <v>1.09154793074909</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>1.101098010196586</v>
+        <v>1.098884930209484</v>
       </c>
       <c r="F53" s="4" t="n">
-        <v>1</v>
+        <v>1.89027286858292</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>1.001167677616218</v>
+        <v>1.006014074454025</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>1</v>
+        <v>1.07698854822828</v>
       </c>
       <c r="I53" s="4" t="n">
         <v>1</v>
@@ -6033,25 +6033,25 @@
         <v/>
       </c>
       <c r="B54" s="4" t="n">
-        <v/>
+        <v>4.419257807219144</v>
       </c>
       <c r="C54" s="4" t="n">
-        <v>6.48362108644345</v>
+        <v>1.204398234893734</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>1.039308000358476</v>
+        <v>1.123631999542809</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>1.003847385429832</v>
+        <v>1.119101910954008</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>1</v>
+        <v>1.422758787854304</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>1</v>
+        <v>1.001233373854249</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>1</v>
+        <v>1.433896382424361</v>
       </c>
       <c r="I54" t="n">
         <v/>
@@ -6108,22 +6108,22 @@
         <v/>
       </c>
       <c r="B55" s="4" t="n">
-        <v>8.675688093466942</v>
+        <v>11.88154069767442</v>
       </c>
       <c r="C55" s="4" t="n">
-        <v>4.612350610671045</v>
+        <v>3.79966664627806</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>1.019066781851783</v>
+        <v>1.157684831557893</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>1.00088689202559</v>
+        <v>1.012111310030765</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>0.9961955866231743</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>1.00102186434549</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H55" t="n">
         <v/>
@@ -6183,19 +6183,19 @@
         <v/>
       </c>
       <c r="B56" s="4" t="n">
-        <v>13.19602232078981</v>
+        <v/>
       </c>
       <c r="C56" s="4" t="n">
-        <v>1.258964294620881</v>
+        <v>1.429800278943977</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>1.081654975217573</v>
+        <v>1.087551682305464</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1.00506801813817</v>
+        <v>1.018300692280199</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>1.008884716544665</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6258,16 +6258,16 @@
         <v/>
       </c>
       <c r="B57" s="4" t="n">
-        <v>12.16980172852059</v>
+        <v>8.999136413458665</v>
       </c>
       <c r="C57" s="4" t="n">
-        <v>2.153861761932612</v>
+        <v>7.178528587826689</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>1.12241420393778</v>
+        <v>1.036524212451971</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>1.017704489070465</v>
+        <v>1.036172733071887</v>
       </c>
       <c r="F57" t="n">
         <v/>
@@ -6333,13 +6333,13 @@
         <v/>
       </c>
       <c r="B58" s="4" t="n">
-        <v>2.3309067110515</v>
+        <v>76.82712564253812</v>
       </c>
       <c r="C58" s="4" t="n">
-        <v>1.1266400219074</v>
+        <v>1.020146812437103</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>1.09154793074909</v>
+        <v>1.107245594578075</v>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6408,10 +6408,10 @@
         <v/>
       </c>
       <c r="B59" s="4" t="n">
-        <v>4.419257807219143</v>
+        <v>46.07848588090211</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>1.204398234893734</v>
+        <v>1.025253874630137</v>
       </c>
       <c r="D59" t="n">
         <v/>
@@ -6483,7 +6483,7 @@
         <v/>
       </c>
       <c r="B60" s="4" t="n">
-        <v>11.88154069767442</v>
+        <v>52.68638109305761</v>
       </c>
       <c r="C60" t="n">
         <v/>
@@ -6704,61 +6704,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.03176280611877875</v>
+        <v>0.02771015348313413</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.05140351448459358</v>
+        <v>0.02137690840838808</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.05349305617221676</v>
+        <v>0.01023635606809056</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.1883042443140392</v>
+        <v>0.008595823954498715</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.01444549244149393</v>
+        <v>0.01474517162425312</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.03242374843011947</v>
+        <v>0.009878774719996463</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.03244456404862571</v>
+        <v>0.006083661692538104</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.09020540716886603</v>
+        <v>0.003764210770609776</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.08331746879142916</v>
+        <v>0.009344633981974137</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="22" t="n">
-        <v>18.3726234373214</v>
+        <v>18.42673709790354</v>
       </c>
       <c r="O2" s="22" t="n">
-        <v>9.364644132827577</v>
+        <v>18.7359051714377</v>
       </c>
       <c r="P2" s="22" t="n">
-        <v>5.207916028698087</v>
+        <v>43.58906819438733</v>
       </c>
       <c r="Q2" s="22" t="n">
-        <v>3.265641085509908</v>
+        <v>55.12233109165583</v>
       </c>
       <c r="R2" s="22" t="n">
-        <v>30.47304338089435</v>
+        <v>22.08892559002764</v>
       </c>
       <c r="S2" s="22" t="n">
-        <v>10.7681121962877</v>
+        <v>23.72643463886789</v>
       </c>
       <c r="T2" s="22" t="n">
-        <v>8.778869559787067</v>
+        <v>39.29453394552618</v>
       </c>
       <c r="U2" s="22" t="n">
-        <v>6.21056840531502</v>
+        <v>58.53066420549928</v>
       </c>
       <c r="V2" s="22" t="n">
-        <v>4.236778557103997</v>
+        <v>49.35569964302158</v>
       </c>
     </row>
     <row r="3">
@@ -6767,62 +6767,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.5835660761329701</v>
+        <v>0.5106077131762686</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.4813756203248666</v>
+        <v>0.4005157287980681</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.2785873446633348</v>
+        <v>0.4461932227140299</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.6149340768078218</v>
+        <v>0.4738218540254645</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.4401981178280257</v>
+        <v>0.3257049988203141</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.3491425609197337</v>
+        <v>0.2343881027060966</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.2848265957070421</v>
+        <v>0.2390546508905358</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.5602268517515364</v>
+        <v>0.2203217566132845</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.3834554997435399</v>
+        <v>0.4595926857833915</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>1.353658738283128</v>
+        <v>1.514876071742162</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>1.642195187142722</v>
+        <v>1.882046801604564</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v>3.145540102100392</v>
+        <v>1.432810089218463</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <v>1.394855114574667</v>
+        <v>1.410897476903895</v>
       </c>
       <c r="R3" s="22" t="n">
-        <v>1.701700840952594</v>
+        <v>2.141080235563372</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>2.14303307547293</v>
+        <v>2.844839291871372</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v>2.806639335078188</v>
+        <v>2.60963240583495</v>
       </c>
       <c r="U3" s="22" t="n">
-        <v>1.494966672911249</v>
+        <v>3.074643091631309</v>
       </c>
       <c r="V3" s="22" t="n">
-        <v>2.270197608337529</v>
+        <v>1.421853783061179</v>
       </c>
     </row>
     <row r="4">
@@ -6831,62 +6831,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.789949318322992</v>
+        <v>0.7735074067377146</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.790512726905338</v>
+        <v>0.7537893463767251</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.876307664576183</v>
+        <v>0.6393101512455626</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.8577439421616414</v>
+        <v>0.6685140583464535</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.7490855072937005</v>
+        <v>0.6973605355983656</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.7482240561063118</v>
+        <v>0.6667964841254861</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.7994055271877964</v>
+        <v>0.6238447637295029</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.8375204726385377</v>
+        <v>0.6774107669071099</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.8669264372979876</v>
+        <v>0.653586041023942</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.096031810807716</v>
+        <v>1.071467800817109</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.050387235513921</v>
+        <v>1.075001547552351</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1.042720972923854</v>
+        <v>1.081171783364306</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>1.101178884633984</v>
+        <v>1.072676105193882</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>1.107702885587401</v>
+        <v>1.094683176393187</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>1.061392153508672</v>
+        <v>1.09202127153787</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>1.065775995182165</v>
+        <v>1.100697708530884</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>1.098539036634815</v>
+        <v>1.077107163111837</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.071949928778919</v>
+        <v>1.076923944279094</v>
       </c>
     </row>
     <row r="5">
@@ -6895,62 +6895,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.8658095818078699</v>
+        <v>0.8287882800130041</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.8303444778526691</v>
+        <v>0.8103247138834545</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.9137443805875076</v>
+        <v>0.6912040963450694</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.9445295175311124</v>
+        <v>0.7170990563744295</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.8297641779809344</v>
+        <v>0.7633888462000732</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.7941591422176717</v>
+        <v>0.7281559444516947</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.8519872212926972</v>
+        <v>0.6866645019160545</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.9200489331742739</v>
+        <v>0.7296439894047309</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.9288819477224254</v>
+        <v>0.7039135065401843</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.077327689199647</v>
+        <v>1.083713818502874</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.120840169038322</v>
+        <v>1.079892157190205</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1.033318350472057</v>
+        <v>1.04378141625366</v>
       </c>
       <c r="Q5" s="22" t="n">
-        <v>1.004006999750009</v>
+        <v>1.030787078220747</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>1.084542004750076</v>
+        <v>1.085703227741347</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>1.118306586274164</v>
+        <v>1.073789411056413</v>
       </c>
       <c r="T5" s="22" t="n">
-        <v>1.027922830188652</v>
+        <v>1.050379344269468</v>
       </c>
       <c r="U5" s="22" t="n">
-        <v>1.007886466411408</v>
+        <v>1.022194911794284</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.018662675111033</v>
+        <v>1.037284247237204</v>
       </c>
     </row>
     <row r="6">
@@ -6959,62 +6959,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.932760636055985</v>
+        <v>0.898169311663322</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.9306834449164227</v>
+        <v>0.8750633033001392</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.944188836101795</v>
+        <v>0.7214659906033881</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.9483142470717355</v>
+        <v>0.7391764411150531</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.8999141050572417</v>
+        <v>0.828813734341162</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.8881133992918628</v>
+        <v>0.7818861427500117</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.8757771157957547</v>
+        <v>0.7212582092557062</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.927304868182605</v>
+        <v>0.7458383733907983</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.9462470451566611</v>
+        <v>0.730213845276758</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.021073544800321</v>
+        <v>1.044966890004654</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.018995764887811</v>
+        <v>1.048406583488248</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.004484611578427</v>
+        <v>1.24858572015897</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>0.9988415611765004</v>
+        <v>1.147584130367142</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1.022268497439305</v>
+        <v>1.090986751197962</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.023991054965562</v>
+        <v>1.121296376406962</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.005001202644193</v>
+        <v>1.231404040480289</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1.00169343438928</v>
+        <v>1.140919595951435</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.001663086377463</v>
+        <v>1.198084925263056</v>
       </c>
     </row>
     <row r="7">
@@ -7023,62 +7023,62 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.9524172091078866</v>
+        <v>0.9385571923064425</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.9483624888210329</v>
+        <v>0.9174221281488396</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.9484231562883982</v>
+        <v>0.9008121334477358</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.9472156830310499</v>
+        <v>0.8482671533648973</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.9199538400013033</v>
+        <v>0.904224803377115</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.9094201766699259</v>
+        <v>0.876726098628405</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.8801570546229963</v>
+        <v>0.8881602731070547</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.9288751981357322</v>
+        <v>0.850941615614105</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.9478190350949965</v>
+        <v>0.8737503781761116</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.009864920081608</v>
+        <v>1.003643485132359</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.004140025421362</v>
+        <v>1.005458816893146</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1.004232464634543</v>
+        <v>1.002861013890045</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>1.000715791962842</v>
+        <v>1.003221323186615</v>
       </c>
       <c r="R7" s="22" t="n">
-        <v>1.010093832662546</v>
+        <v>1.005833158618837</v>
       </c>
       <c r="S7" s="22" t="n">
-        <v>1.006653640368098</v>
+        <v>1.007896620772461</v>
       </c>
       <c r="T7" s="22" t="n">
-        <v>1.004334213518077</v>
+        <v>1.004361617147717</v>
       </c>
       <c r="U7" s="22" t="n">
-        <v>1.000729847320569</v>
+        <v>1.002415816102758</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.002474128298692</v>
+        <v>1.00304116853833</v>
       </c>
     </row>
     <row r="8">
@@ -7087,62 +7087,62 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.9618127287600843</v>
+        <v>0.94197681148248</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.9522887336334179</v>
+        <v>0.9224301675601246</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.9524373237559703</v>
+        <v>0.903389369473851</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.9478936924040413</v>
+        <v>0.850999696014476</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.9292397001195428</v>
+        <v>0.9094992900823005</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.9154711314689802</v>
+        <v>0.883649272150593</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.8839718432271739</v>
+        <v>0.8920340881841593</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.9295531352102347</v>
+        <v>0.8529973340716124</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.9501600762405823</v>
+        <v>0.8764123009293476</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.009379283794949</v>
+        <v>1.032977579442283</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.01550183458678</v>
+        <v>1.049873436969852</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.027958200397528</v>
+        <v>1.078935782325941</v>
       </c>
       <c r="Q8" s="22" t="n">
-        <v>1.000531821043472</v>
+        <v>1.172907029759</v>
       </c>
       <c r="R8" s="22" t="n">
-        <v>1.031722251042594</v>
+        <v>1.067106051566846</v>
       </c>
       <c r="S8" s="22" t="n">
-        <v>1.044863230770336</v>
+        <v>1.095066906386365</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1.088312474126056</v>
+        <v>1.10040548390026</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1.000562310763349</v>
+        <v>1.170294976884213</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.0142450107205</v>
+        <v>1.125921406042471</v>
       </c>
     </row>
     <row r="9">
@@ -7151,62 +7151,62 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.9708338433007195</v>
+        <v>0.9730409266159321</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.9670509560610577</v>
+        <v>0.9684349303810249</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.9790657573196248</v>
+        <v>0.9746991160982081</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.9483978022166362</v>
+        <v>0.9981435257781511</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.9587172751654801</v>
+        <v>0.9705321963425729</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.9565421241036531</v>
+        <v>0.9676550747845126</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.962037583760336</v>
+        <v>0.981599202463817</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.9300758329432681</v>
+        <v>0.9982584953596334</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.9634878001957162</v>
+        <v>0.9862820193199021</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.003257678465502</v>
+        <v>1.005228685462582</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.004697214692052</v>
+        <v>1.007599771072712</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>0.9951937481515489</v>
+        <v>1.02150282180672</v>
       </c>
       <c r="Q9" s="22" t="n">
-        <v>0.9908693432255548</v>
+        <v>1</v>
       </c>
       <c r="R9" s="22" t="n">
-        <v>1.003015970877369</v>
+        <v>1.004291350929878</v>
       </c>
       <c r="S9" s="22" t="n">
-        <v>1.003815770625789</v>
+        <v>1.005721801239838</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>0.9968295634126833</v>
+        <v>1.013183647081855</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>0.9913348552166954</v>
+        <v>1</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>0.9930315456885519</v>
+        <v>1.01075141090336</v>
       </c>
     </row>
     <row r="10">
@@ -7215,62 +7215,62 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.9739965078056205</v>
+        <v>0.9781286515634263</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.9715934020198307</v>
+        <v>0.9757948141507383</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.9743601207137521</v>
+        <v>0.995657897506835</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.9397383073989577</v>
+        <v>0.9981435257781511</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.9616087385470098</v>
+        <v>0.9746970905858244</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.9601920694431374</v>
+        <v>0.97319180479115</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.9589875046064084</v>
+        <v>0.9945402599249301</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.922016591191362</v>
+        <v>0.9982584953596334</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.956736097985729</v>
+        <v>0.9968991622535139</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.005762278109015</v>
+        <v>1.007338577099618</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1.008245078553113</v>
+        <v>1.009600772284565</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>1.000385902473499</v>
+        <v>1.000013969181957</v>
       </c>
       <c r="Q10" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="22" t="n">
-        <v>1.005892639561371</v>
+        <v>1.005896776135261</v>
       </c>
       <c r="S10" s="22" t="n">
-        <v>1.007365799451713</v>
+        <v>1.007370970169076</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1.000744124211477</v>
+        <v>1.000010200532599</v>
       </c>
       <c r="U10" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1.00019295123675</v>
+        <v>1.000006984590978</v>
       </c>
     </row>
     <row r="11">
@@ -7279,62 +7279,62 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.979608946560806</v>
+        <v>0.98530672408627</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.9796042659411704</v>
+        <v>0.9851631979578588</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.9747361286944147</v>
+        <v>0.9956718060331722</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.9397383073989577</v>
+        <v>0.9981435257781511</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.9672751522423315</v>
+        <v>0.9804446611286989</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.9672646516617809</v>
+        <v>0.9803651725530546</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.9597011104270894</v>
+        <v>0.994550404765273</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>0.922016591191362</v>
+        <v>0.9982584953596334</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.9569173267302139</v>
+        <v>0.9969061338183114</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.00011368431976</v>
+        <v>1.000270261886223</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1.000111952430971</v>
+        <v>1.000330207460267</v>
       </c>
       <c r="P11" s="22" t="n">
-        <v>1</v>
+        <v>1.000351567484388</v>
       </c>
       <c r="Q11" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="22" t="n">
-        <v>1.000148214200218</v>
+        <v>1.000263093654014</v>
       </c>
       <c r="S11" s="22" t="n">
-        <v>1.000154284593505</v>
+        <v>1.00030694259635</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>1</v>
+        <v>1.000305316005691</v>
       </c>
       <c r="U11" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1</v>
+        <v>1.000175783742194</v>
       </c>
     </row>
     <row r="12">
@@ -7343,62 +7343,62 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.9797203127375261</v>
+        <v>0.9855730149400295</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.9797139350201325</v>
+        <v>0.9854885061954052</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.9747361286944147</v>
+        <v>0.9960218518652952</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.9397383073989577</v>
+        <v>0.9981435257781511</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.9674185161554116</v>
+        <v>0.9807026098971542</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.967413885695374</v>
+        <v>0.9806660883844893</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.9597011104270894</v>
+        <v>0.9948540569223143</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>0.922016591191362</v>
+        <v>0.9982584953596334</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.9569173267302139</v>
+        <v>0.9970815601540002</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1.000044028674791</v>
+        <v>1.000557903176125</v>
       </c>
       <c r="O12" s="22" t="n">
-        <v>1.000050538736522</v>
+        <v>1.000643704169023</v>
       </c>
       <c r="P12" s="22" t="n">
-        <v>1.000083556128415</v>
+        <v>1.000957537471846</v>
       </c>
       <c r="Q12" s="22" t="n">
-        <v>1.000171989139739</v>
+        <v>1.001859927128618</v>
       </c>
       <c r="R12" s="22" t="n">
-        <v>1.000057440474014</v>
+        <v>1.000447098254572</v>
       </c>
       <c r="S12" s="22" t="n">
-        <v>1.000062227180182</v>
+        <v>1.000484356442453</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>1.000096334097829</v>
+        <v>1.000872271384848</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>1.000192668195658</v>
+        <v>1.001744542769695</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1.000127772634077</v>
+        <v>1.001408732300232</v>
       </c>
     </row>
     <row r="13">
@@ -7407,62 +7407,62 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.9797634485245618</v>
+        <v>0.9861228692553679</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.9797634485245618</v>
+        <v>0.9861228692553679</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>0.9748175738715543</v>
+        <v>0.9969755801112334</v>
       </c>
       <c r="E13" s="34" t="n">
-        <v>0.9398999321820272</v>
+        <v>1</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>0.9674740851335492</v>
+        <v>0.9811410803222935</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>0.9674740851335492</v>
+        <v>0.9811410803222935</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>0.9597935623677476</v>
+        <v>0.9957218396482672</v>
       </c>
       <c r="I13" s="34" t="n">
-        <v>0.9221942344643534</v>
+        <v>1</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>0.9570403661897499</v>
+        <v>0.9984854998133739</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
         <v/>
       </c>
       <c r="N13" s="22" t="n">
-        <v>1.000984611122114</v>
+        <v>1.001856612559582</v>
       </c>
       <c r="O13" s="22" t="n">
-        <v>1.000984611122114</v>
+        <v>1.001856612559582</v>
       </c>
       <c r="P13" s="22" t="n">
-        <v>1.001714195392194</v>
+        <v>1.002239191004799</v>
       </c>
       <c r="Q13" s="22" t="n">
-        <v>1.004825593638381</v>
+        <v>1</v>
       </c>
       <c r="R13" s="22" t="n">
-        <v>1.001751782609629</v>
+        <v>1.002363409143032</v>
       </c>
       <c r="S13" s="22" t="n">
-        <v>1.001751782609629</v>
+        <v>1.002363409143032</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>1.00289493609793</v>
+        <v>1.003555004080911</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>1.005789872195861</v>
+        <v>1</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1.003269894515288</v>
+        <v>1.001119595502399</v>
       </c>
     </row>
     <row r="14">
@@ -7471,47 +7471,47 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.9807281345130202</v>
+        <v>0.9879537173597187</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.9807281345130202</v>
+        <v>0.9879537173597187</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>0.9764886016649141</v>
+        <v>0.999207998862223</v>
       </c>
       <c r="E14" s="34" t="n">
-        <v>0.9444355073154798</v>
+        <v>1</v>
       </c>
       <c r="F14" s="34" t="n">
-        <v>0.9691688894111532</v>
+        <v>0.9834599181221317</v>
       </c>
       <c r="G14" s="34" t="n">
-        <v>0.9691688894111532</v>
+        <v>0.9834599181221317</v>
       </c>
       <c r="H14" s="34" t="n">
-        <v>0.9625721033980073</v>
+        <v>0.9992616348516686</v>
       </c>
       <c r="I14" s="34" t="n">
-        <v>0.9275336212216621</v>
+        <v>1</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>0.960194630896373</v>
+        <v>0.9996038425525369</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
         <v/>
       </c>
       <c r="N14" s="22" t="n">
-        <v>1.000077988830465</v>
+        <v>1.000097510688242</v>
       </c>
       <c r="O14" s="22" t="n">
-        <v>1.000077988830465</v>
+        <v>1.000097510688242</v>
       </c>
       <c r="P14" s="22" t="n">
-        <v>1.000189080718321</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="22" t="n">
-        <v>1.000449585586512</v>
+        <v>1</v>
       </c>
       <c r="R14" s="22" t="n">
         <v>1.00007545720027</v>
@@ -7520,13 +7520,13 @@
         <v>1.00007545720027</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>1.000138338200496</v>
+        <v>1</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>1.000276676400991</v>
+        <v>1</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>1.000319333152417</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -7535,62 +7535,62 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>0.9808046203532345</v>
+        <v>0.9880500534066501</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>0.9808046203532345</v>
+        <v>0.9880500534066501</v>
       </c>
       <c r="D15" s="34" t="n">
-        <v>0.9766732368311489</v>
+        <v>0.999207998862223</v>
       </c>
       <c r="E15" s="34" t="n">
-        <v>0.9448601119069593</v>
+        <v>1</v>
       </c>
       <c r="F15" s="34" t="n">
-        <v>0.9692420201821373</v>
+        <v>0.9835341272541314</v>
       </c>
       <c r="G15" s="34" t="n">
-        <v>0.9692420201821373</v>
+        <v>0.9835341272541314</v>
       </c>
       <c r="H15" s="34" t="n">
-        <v>0.9627052638906386</v>
+        <v>0.9992616348516686</v>
       </c>
       <c r="I15" s="34" t="n">
-        <v>0.9277902478857797</v>
+        <v>1</v>
       </c>
       <c r="J15" s="34" t="n">
-        <v>0.9605033235096724</v>
+        <v>0.9996038425525369</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
         <v/>
       </c>
       <c r="N15" s="22" t="n">
-        <v>1.00011479534898</v>
+        <v>1</v>
       </c>
       <c r="O15" s="22" t="n">
-        <v>1.00011479534898</v>
+        <v>1</v>
       </c>
       <c r="P15" s="22" t="n">
-        <v>1.000228767702458</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="22" t="n">
-        <v>1.000095193859587</v>
+        <v>1</v>
       </c>
       <c r="S15" s="22" t="n">
-        <v>1.000095193859587</v>
+        <v>1</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>1.000158656432645</v>
+        <v>1</v>
       </c>
       <c r="U15" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>1.000114383851229</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -7599,47 +7599,47 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>0.9809172121619086</v>
+        <v>0.9880500534066501</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>0.9809172121619086</v>
+        <v>0.9880500534066501</v>
       </c>
       <c r="D16" s="34" t="n">
-        <v>0.9768966681235907</v>
+        <v>0.999207998862223</v>
       </c>
       <c r="E16" s="34" t="n">
-        <v>0.9448601119069593</v>
+        <v>1</v>
       </c>
       <c r="F16" s="34" t="n">
-        <v>0.9693342860709123</v>
+        <v>0.9835341272541314</v>
       </c>
       <c r="G16" s="34" t="n">
-        <v>0.9693342860709123</v>
+        <v>0.9835341272541314</v>
       </c>
       <c r="H16" s="34" t="n">
-        <v>0.9628580032734959</v>
+        <v>0.9992616348516686</v>
       </c>
       <c r="I16" s="34" t="n">
-        <v>0.9277902478857797</v>
+        <v>1</v>
       </c>
       <c r="J16" s="34" t="n">
-        <v>0.9606113580617817</v>
+        <v>0.9996038425525369</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
         <v/>
       </c>
       <c r="N16" s="22" t="n">
-        <v>1.007826287623</v>
+        <v>1.011527585691004</v>
       </c>
       <c r="O16" s="22" t="n">
-        <v>1.007826287623</v>
+        <v>1.011527585691004</v>
       </c>
       <c r="P16" s="22" t="n">
-        <v>1.013521599771866</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="22" t="n">
-        <v>1.03588025370783</v>
+        <v>1</v>
       </c>
       <c r="R16" s="22" t="n">
         <v>1.016097989007316</v>
@@ -7648,13 +7648,13 @@
         <v>1.016097989007316</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>1.024146983510974</v>
+        <v>1</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>1.048293967021949</v>
+        <v>1</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>1.024700926739848</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -7663,41 +7663,41 @@
         <v/>
       </c>
       <c r="B17" s="34" t="n">
-        <v>0.9885941523986389</v>
+        <v>0.9994398850642966</v>
       </c>
       <c r="C17" s="34" t="n">
-        <v>0.9885941523986389</v>
+        <v>0.9994398850642966</v>
       </c>
       <c r="D17" s="34" t="n">
-        <v>0.9901058738884271</v>
+        <v>0.999207998862223</v>
       </c>
       <c r="E17" s="34" t="n">
-        <v>0.9787619324405894</v>
+        <v>1</v>
       </c>
       <c r="F17" s="34" t="n">
-        <v>0.9849386187524966</v>
+        <v>0.9993670488229888</v>
       </c>
       <c r="G17" s="34" t="n">
-        <v>0.9849386187524966</v>
+        <v>0.9993670488229888</v>
       </c>
       <c r="H17" s="34" t="n">
-        <v>0.9861081196019507</v>
+        <v>0.9992616348516686</v>
       </c>
       <c r="I17" s="34" t="n">
-        <v>0.9725969195204613</v>
+        <v>1</v>
       </c>
       <c r="J17" s="34" t="n">
-        <v>0.9844012232133308</v>
+        <v>0.9996038425525369</v>
       </c>
       <c r="M17">
         <f>+M16+1</f>
         <v/>
       </c>
       <c r="N17" s="22" t="n">
-        <v>1.000150887798121</v>
+        <v>1</v>
       </c>
       <c r="O17" s="22" t="n">
-        <v>1.000150887798121</v>
+        <v>1</v>
       </c>
       <c r="P17" s="22" t="n">
         <v>1</v>
@@ -7706,10 +7706,10 @@
         <v>1</v>
       </c>
       <c r="R17" s="22" t="n">
-        <v>1.000125885978373</v>
+        <v>1</v>
       </c>
       <c r="S17" s="22" t="n">
-        <v>1.000125885978373</v>
+        <v>1</v>
       </c>
       <c r="T17" s="22" t="n">
         <v>1</v>
@@ -7727,62 +7727,62 @@
         <v/>
       </c>
       <c r="B18" s="34" t="n">
-        <v>0.9887433191935299</v>
+        <v>0.9994398850642966</v>
       </c>
       <c r="C18" s="34" t="n">
-        <v>0.9887433191935299</v>
+        <v>0.9994398850642966</v>
       </c>
       <c r="D18" s="34" t="n">
-        <v>0.9901058738884271</v>
+        <v>0.999207998862223</v>
       </c>
       <c r="E18" s="34" t="n">
-        <v>0.9787619324405894</v>
+        <v>1</v>
       </c>
       <c r="F18" s="34" t="n">
-        <v>0.9850626087141557</v>
+        <v>0.9993670488229888</v>
       </c>
       <c r="G18" s="34" t="n">
-        <v>0.9850626087141557</v>
+        <v>0.9993670488229888</v>
       </c>
       <c r="H18" s="34" t="n">
-        <v>0.9861081196019507</v>
+        <v>0.9992616348516686</v>
       </c>
       <c r="I18" s="34" t="n">
-        <v>0.9725969195204613</v>
+        <v>1</v>
       </c>
       <c r="J18" s="34" t="n">
-        <v>0.9844012232133308</v>
+        <v>0.9996038425525369</v>
       </c>
       <c r="M18">
         <f>+M17+1</f>
         <v/>
       </c>
       <c r="N18" s="22" t="n">
-        <v>1.001378067157014</v>
+        <v>1.000560428840267</v>
       </c>
       <c r="O18" s="22" t="n">
-        <v>1.001378067157014</v>
+        <v>1.000560428840267</v>
       </c>
       <c r="P18" s="22" t="n">
-        <v>1</v>
+        <v>1.000792628900768</v>
       </c>
       <c r="Q18" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="22" t="n">
-        <v>1.001061364910764</v>
+        <v>1.000633352057942</v>
       </c>
       <c r="S18" s="22" t="n">
-        <v>1.001061364910764</v>
+        <v>1.000633352057942</v>
       </c>
       <c r="T18" s="22" t="n">
-        <v>1</v>
+        <v>1.000738910734265</v>
       </c>
       <c r="U18" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>1</v>
+        <v>1.000396314450384</v>
       </c>
     </row>
     <row r="19">
@@ -7791,62 +7791,62 @@
         <v/>
       </c>
       <c r="B19" s="34" t="n">
-        <v>0.9901058738884271</v>
+        <v>1</v>
       </c>
       <c r="C19" s="34" t="n">
-        <v>0.9901058738884271</v>
+        <v>1</v>
       </c>
       <c r="D19" s="34" t="n">
-        <v>0.9901058738884271</v>
+        <v>1</v>
       </c>
       <c r="E19" s="34" t="n">
-        <v>0.9787619324405894</v>
+        <v>1</v>
       </c>
       <c r="F19" s="34" t="n">
-        <v>0.9861081196019507</v>
+        <v>1</v>
       </c>
       <c r="G19" s="34" t="n">
-        <v>0.9861081196019507</v>
+        <v>1</v>
       </c>
       <c r="H19" s="34" t="n">
-        <v>0.9861081196019507</v>
+        <v>1</v>
       </c>
       <c r="I19" s="34" t="n">
-        <v>0.9725969195204613</v>
+        <v>1</v>
       </c>
       <c r="J19" s="34" t="n">
-        <v>0.9844012232133308</v>
+        <v>1</v>
       </c>
       <c r="M19">
         <f>+M18+1</f>
         <v/>
       </c>
       <c r="N19" s="22" t="n">
-        <v>1.009992998094957</v>
+        <v>1</v>
       </c>
       <c r="O19" s="22" t="n">
-        <v>1.009992998094957</v>
+        <v>1</v>
       </c>
       <c r="P19" s="22" t="n">
-        <v>1.009992998094957</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="22" t="n">
-        <v>1.021698910486284</v>
+        <v>1</v>
       </c>
       <c r="R19" s="22" t="n">
-        <v>1.014087583422046</v>
+        <v>1</v>
       </c>
       <c r="S19" s="22" t="n">
-        <v>1.014087583422046</v>
+        <v>1</v>
       </c>
       <c r="T19" s="22" t="n">
-        <v>1.014087583422046</v>
+        <v>1</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>1.028175166844092</v>
+        <v>1</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>1.01584595429062</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -8234,7 +8234,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45657</v>
+        <v>45808</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>32539.34999999999</v>
+        <v>29633.19</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8582,7 +8582,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>17768.02416666667</v>
+        <v>14998.66666666667</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8605,76 +8605,76 @@
         <v/>
       </c>
       <c r="S8" s="22" t="n">
-        <v>629.03</v>
+        <v>512.04</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>20021.35</v>
+        <v>17308.98</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>24043.78</v>
+        <v>27491.02</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>25901.45</v>
+        <v>27810.02</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>30567.88</v>
+        <v>27886.26</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>32242.89</v>
+        <v>29525.37</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>32276.98999999999</v>
+        <v>29525.37</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>32276.98999999999</v>
+        <v>29525.37</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>32292.15999999999</v>
+        <v>29525.37</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>32292.15999999999</v>
+        <v>29525.37</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>32299.37999999999</v>
+        <v>29525.37</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>32299.37999999999</v>
+        <v>29525.37</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>32299.37999999999</v>
+        <v>29633.19</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>32299.37999999999</v>
+        <v>29633.19</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>32299.37999999999</v>
+        <v>29633.19</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>32299.37999999999</v>
+        <v>29633.19</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>32299.37999999999</v>
+        <v>29633.19</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>32539.34999999999</v>
+        <v>29633.19</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>32539.34999999999</v>
+        <v>29633.19</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>32539.34999999999</v>
+        <v>29633.19</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>32539.34999999999</v>
+        <v>29633.19</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>32539.34999999999</v>
+        <v>29633.19</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>32539.34999999999</v>
+        <v>29633.19</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>32539.34999999999</v>
+        <v>29633.19</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8685,7 +8685,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>28029.73</v>
+        <v>12762.01</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8709,7 +8709,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>17002.06833333333</v>
+        <v>14638.6575</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8732,73 +8732,73 @@
         <v/>
       </c>
       <c r="S9" s="22" t="n">
-        <v>580.55</v>
+        <v>332.88</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>16559.63</v>
+        <v>7231.88</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>17709.06</v>
+        <v>11352.11</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>25274.72</v>
+        <v>11121.29</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>25393.72</v>
+        <v>11121.29</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>25453.06</v>
+        <v>11147.01</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>27971.77</v>
+        <v>11147.01</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>27997.49</v>
+        <v>11147.01</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>28001.53</v>
+        <v>11147.01</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>28001.53</v>
+        <v>11147.01</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>28001.53</v>
+        <v>11147.01</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>28001.53</v>
+        <v>11147.01</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>28001.53</v>
+        <v>11147.01</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>28001.53</v>
+        <v>11147.01</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>28001.53</v>
+        <v>11147.01</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>28001.53</v>
+        <v>12762.01</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>28029.73</v>
+        <v>12762.01</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>28029.73</v>
+        <v>12762.01</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>28029.73</v>
+        <v>12762.01</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>28029.73</v>
+        <v>12762.01</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>28029.73</v>
+        <v>12762.01</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>28029.73</v>
+        <v>12762.01</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>28029.73</v>
+        <v>12762.01</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8812,7 +8812,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>26616.38</v>
+        <v>12843.53</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8836,7 +8836,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>15696.41666666667</v>
+        <v>13948.4575</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8859,70 +8859,70 @@
         <v/>
       </c>
       <c r="S10" s="22" t="n">
-        <v>715.77</v>
+        <v>680.97</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>18764.86</v>
+        <v>5141.67</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>23939.82</v>
+        <v>7810.51</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>24512.97</v>
+        <v>12440.16</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>26195.33</v>
+        <v>12523.67</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>26563.21</v>
+        <v>12763.21</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>26611.89</v>
+        <v>12763.21</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>26611.89</v>
+        <v>12763.21</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>26611.89</v>
+        <v>12763.21</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>26611.89</v>
+        <v>12763.21</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>26611.89</v>
+        <v>12786.84</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>26616.38</v>
+        <v>12786.84</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>26616.38</v>
+        <v>12786.84</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>26616.38</v>
+        <v>12786.84</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>26616.38</v>
+        <v>12786.84</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>26616.38</v>
+        <v>12786.84</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>26616.38</v>
+        <v>12786.84</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>26616.38</v>
+        <v>12843.53</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>26616.38</v>
+        <v>12843.53</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>26616.38</v>
+        <v>12843.53</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>26616.38</v>
+        <v>12843.53</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>26616.38</v>
+        <v>12843.53</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8939,7 +8939,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>20721.66</v>
+        <v>21076.98</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8963,7 +8963,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>15156.19916666667</v>
+        <v>13651.49083333334</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8986,67 +8986,67 @@
         <v/>
       </c>
       <c r="S11" s="22" t="n">
-        <v>66.40000000000001</v>
+        <v>467.46</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>16775.04</v>
+        <v>10239.23</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>17289.49</v>
+        <v>11124.92</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>18988.22</v>
+        <v>12861.9</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>19015.42</v>
+        <v>19428.93</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>19071.34</v>
+        <v>19428.93</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>19071.34</v>
+        <v>19428.93</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>19071.34</v>
+        <v>19428.93</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>19106.66</v>
+        <v>19428.93</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>19106.66</v>
+        <v>21059.5</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>19106.66</v>
+        <v>21059.5</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>19106.66</v>
+        <v>21059.5</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>19106.66</v>
+        <v>21059.5</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>19106.66</v>
+        <v>21076.98</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>19106.66</v>
+        <v>21076.98</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>19106.66</v>
+        <v>21076.98</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>19106.66</v>
+        <v>21076.98</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>19106.66</v>
+        <v>21076.98</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>20721.66</v>
+        <v>21076.98</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>20721.66</v>
+        <v>21076.98</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>20721.66</v>
+        <v>21076.98</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9066,7 +9066,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>25687.85</v>
+        <v>6482.110000000001</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9090,7 +9090,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>15001.12916666667</v>
+        <v>12926.25833333333</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9113,64 +9113,64 @@
         <v/>
       </c>
       <c r="S12" s="22" t="n">
-        <v>1042.83</v>
+        <v>746.26</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>19121.31</v>
+        <v>4325.09</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>20836.61</v>
+        <v>5076.23</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>24133.55</v>
+        <v>5708.450000000001</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>24297.02</v>
+        <v>6317.030000000001</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>24297.02</v>
+        <v>6317.030000000001</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>24297.02</v>
+        <v>6381.700000000001</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>24297.02</v>
+        <v>6381.700000000001</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>25663.42</v>
+        <v>6436.420000000001</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>25663.42</v>
+        <v>6460.280000000001</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>25663.42</v>
+        <v>6460.280000000001</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>25663.42</v>
+        <v>6460.280000000001</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>25663.42</v>
+        <v>6482.110000000001</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>25663.42</v>
+        <v>6482.110000000001</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>25687.85</v>
+        <v>6482.110000000001</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>25687.85</v>
+        <v>6482.110000000001</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>25687.85</v>
+        <v>6482.110000000001</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>25687.85</v>
+        <v>6482.110000000001</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>25687.85</v>
+        <v>6482.110000000001</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>25687.85</v>
+        <v>6482.110000000001</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9193,7 +9193,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>29633.19</v>
+        <v>11326.02</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9217,7 +9217,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>14998.66666666667</v>
+        <v>12565.32333333333</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9240,61 +9240,61 @@
         <v/>
       </c>
       <c r="S13" s="22" t="n">
-        <v>512.04</v>
+        <v>239.2</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>17308.98</v>
+        <v>5923.67</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>27491.02</v>
+        <v>7772.14</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>27810.02</v>
+        <v>7922.88</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>27886.26</v>
+        <v>9522.880000000001</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>29525.37</v>
+        <v>11137.88</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>29525.37</v>
+        <v>11137.88</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>29525.37</v>
+        <v>11232.48</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>29525.37</v>
+        <v>11310.89</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>29525.37</v>
+        <v>11319.47</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>29525.37</v>
+        <v>11319.47</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>29525.37</v>
+        <v>11326.02</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>29633.19</v>
+        <v>11326.02</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>29633.19</v>
+        <v>11326.02</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>29633.19</v>
+        <v>11326.02</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>29633.19</v>
+        <v>11326.02</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>29633.19</v>
+        <v>11326.02</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>29633.19</v>
+        <v>11326.02</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>29633.19</v>
+        <v>11326.02</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9320,7 +9320,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>12762.01</v>
+        <v>7087.529999999999</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9344,7 +9344,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>14638.6575</v>
+        <v>12121</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9367,58 +9367,58 @@
         <v/>
       </c>
       <c r="S14" s="22" t="n">
-        <v>332.88</v>
+        <v/>
       </c>
       <c r="T14" s="22" t="n">
-        <v>7231.88</v>
+        <v>3411.01</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>11352.11</v>
+        <v>4361.45</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>11121.29</v>
+        <v>4361.45</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>11121.29</v>
+        <v>4361.45</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>11147.01</v>
+        <v>4463.429999999999</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>11147.01</v>
+        <v>4658.039999999999</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>11147.01</v>
+        <v>6989.739999999999</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>11147.01</v>
+        <v>6989.739999999999</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>11147.01</v>
+        <v>6989.739999999999</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>11147.01</v>
+        <v>6989.739999999999</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>11147.01</v>
+        <v>6989.739999999999</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>11147.01</v>
+        <v>7087.529999999999</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>11147.01</v>
+        <v>7087.529999999999</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>11147.01</v>
+        <v>7087.529999999999</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>12762.01</v>
+        <v>7087.529999999999</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>12762.01</v>
+        <v>7087.529999999999</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>12762.01</v>
+        <v>7087.529999999999</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9447,7 +9447,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>12786.84</v>
+        <v>19876.39999999999</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9471,7 +9471,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>13948.4575</v>
+        <v>11200.785</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9494,55 +9494,55 @@
         <v/>
       </c>
       <c r="S15" s="22" t="n">
-        <v>680.97</v>
+        <v>816.14</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>5141.67</v>
+        <v>18529.29</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>7810.51</v>
+        <v>18538.02</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>12440.16</v>
+        <v>18538.02</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>12523.67</v>
+        <v>18538.02</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>12763.21</v>
+        <v>19390.94</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>12763.21</v>
+        <v>19743.73999999999</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>12763.21</v>
+        <v>19761.96999999999</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>12763.21</v>
+        <v>19761.96999999999</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>12763.21</v>
+        <v>19761.96999999999</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>12786.84</v>
+        <v>19761.96999999999</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>12786.84</v>
+        <v>19761.96999999999</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>12786.84</v>
+        <v>19876.39999999999</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>12786.84</v>
+        <v>19876.39999999999</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>12786.84</v>
+        <v>19876.39999999999</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>12786.84</v>
+        <v>19876.39999999999</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>12786.84</v>
+        <v>19876.39999999999</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9574,7 +9574,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>21076.98</v>
+        <v>20682.64</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9598,7 +9598,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>13651.49083333334</v>
+        <v>11200.785</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9621,52 +9621,52 @@
         <v/>
       </c>
       <c r="S16" s="22" t="n">
-        <v>467.46</v>
+        <v/>
       </c>
       <c r="T16" s="22" t="n">
-        <v>10239.23</v>
+        <v>14065</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>11124.92</v>
+        <v>14065</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>12861.9</v>
+        <v>14065</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>19428.93</v>
+        <v>20159.73</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>19428.93</v>
+        <v>20650.65</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>19428.93</v>
+        <v>20650.65</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>19428.93</v>
+        <v>21201.8</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>19428.93</v>
+        <v>20650.65</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>21059.5</v>
+        <v>20650.65</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>21059.5</v>
+        <v>20650.65</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>21059.5</v>
+        <v>20650.65</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>21059.5</v>
+        <v>20682.64</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>21076.98</v>
+        <v>20682.64</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>21076.98</v>
+        <v>20682.64</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>21076.98</v>
+        <v>20682.64</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9701,7 +9701,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>6482.110000000001</v>
+        <v>18885.32</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9725,7 +9725,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>12926.25833333333</v>
+        <v>11021.96333333333</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9748,49 +9748,49 @@
         <v/>
       </c>
       <c r="S17" s="22" t="n">
-        <v>746.26</v>
+        <v/>
       </c>
       <c r="T17" s="22" t="n">
-        <v>4325.09</v>
+        <v/>
       </c>
       <c r="U17" s="22" t="n">
-        <v>5076.23</v>
+        <v>15064.66</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>5708.450000000001</v>
+        <v>18031.81</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>6317.030000000001</v>
+        <v>18734.52</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>6317.030000000001</v>
+        <v>18745.31</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>6381.700000000001</v>
+        <v>18850.79</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>6381.700000000001</v>
+        <v>18882.62</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>6436.420000000001</v>
+        <v>18882.62</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>6460.280000000001</v>
+        <v>18882.62</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>6460.280000000001</v>
+        <v>18885.32</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>6460.280000000001</v>
+        <v>18885.32</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>6482.110000000001</v>
+        <v>18885.32</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>6482.110000000001</v>
+        <v>18885.32</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>6482.110000000001</v>
+        <v>18885.32</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9828,7 +9828,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>11338.64</v>
+        <v>20295.84</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9852,7 +9852,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>12565.32333333333</v>
+        <v>10834.99333333333</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9875,46 +9875,46 @@
         <v/>
       </c>
       <c r="S18" s="22" t="n">
-        <v>239.2</v>
+        <v/>
       </c>
       <c r="T18" s="22" t="n">
-        <v>5936.29</v>
+        <v/>
       </c>
       <c r="U18" s="22" t="n">
-        <v>7784.76</v>
+        <v>17660.55</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>7935.5</v>
+        <v>18378.7</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>9535.5</v>
+        <v>20236.75</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>11150.5</v>
+        <v>20236.75</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>11150.5</v>
+        <v>20260.38</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>11245.1</v>
+        <v>20260.38</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>11323.51</v>
+        <v>20260.38</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>11332.09</v>
+        <v>20261.62</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>11332.09</v>
+        <v>20295.84</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>11338.64</v>
+        <v>20295.84</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>11338.64</v>
+        <v>20295.84</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>11338.64</v>
+        <v>20295.84</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9955,7 +9955,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>7087.529999999999</v>
+        <v>22478.19</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9979,7 +9979,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>12121</v>
+        <v>10854.00333333333</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10008,40 +10008,40 @@
         <v/>
       </c>
       <c r="T19" s="22" t="n">
-        <v>3411.01</v>
+        <v>3063.39</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>4361.45</v>
+        <v>19861.86</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>4361.45</v>
+        <v>20642.59</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>4361.45</v>
+        <v>20722.00999999999</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>4463.429999999999</v>
+        <v>20722.00999999999</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>4658.039999999999</v>
+        <v>20722.00999999999</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>6989.739999999999</v>
+        <v>20722.00999999999</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>6989.739999999999</v>
+        <v>22361.16</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>6989.739999999999</v>
+        <v>22361.16</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>6989.739999999999</v>
+        <v>22361.16</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>6989.739999999999</v>
+        <v>22478.19</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>7087.529999999999</v>
+        <v>22478.19</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10085,7 +10085,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>19761.97</v>
+        <v>20264.82</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10109,7 +10109,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>11200.785</v>
+        <v>10854.00333333333</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10141,40 +10141,40 @@
         <v/>
       </c>
       <c r="S20" s="22" t="n">
-        <v>816.14</v>
+        <v>457.06</v>
       </c>
       <c r="T20" s="22" t="n">
-        <v>18529.29</v>
+        <v>3965.31</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v>18538.02</v>
+        <v>18289.4</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>18538.02</v>
+        <v>18638.12</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>18538.02</v>
+        <v>18654.65</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>19390.94</v>
+        <v>18583.68</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>19743.74</v>
+        <v>18602.67</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>19761.97</v>
+        <v>20264.82</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>19761.97</v>
+        <v>20264.82</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>19761.97</v>
+        <v>20264.82</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>19761.97</v>
+        <v>20264.82</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>19761.97</v>
+        <v>20264.82</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10221,7 +10221,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>20650.65</v>
+        <v>2594.53</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10245,7 +10245,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>11200.785</v>
+        <v>9756.408333333335</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10277,37 +10277,37 @@
         <v/>
       </c>
       <c r="S21" s="22" t="n">
-        <v/>
+        <v>139.78</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>14065</v>
+        <v>1844.54</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>14065</v>
+        <v>2322.21</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>14065</v>
+        <v>2511.83</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>20159.73</v>
+        <v>2524.56</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>20650.65</v>
+        <v>2546.99</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>20650.65</v>
+        <v>2588.84</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>21201.8</v>
+        <v>2594.53</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>20650.65</v>
+        <v>2594.53</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>20650.65</v>
+        <v>2594.53</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>20650.65</v>
+        <v>2594.53</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10357,7 +10357,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>18900.4</v>
+        <v>4403.32</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10381,7 +10381,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>11021.96333333333</v>
+        <v>9756.408333333333</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10413,34 +10413,34 @@
         <v/>
       </c>
       <c r="S22" s="22" t="n">
-        <v/>
+        <v>137.69</v>
       </c>
       <c r="T22" s="22" t="n">
-        <v/>
+        <v>1675.66</v>
       </c>
       <c r="U22" s="22" t="n">
-        <v>15064.66</v>
+        <v>3609.14</v>
       </c>
       <c r="V22" s="22" t="n">
-        <v>18049.59</v>
+        <v>4050.95</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v>18752.3</v>
+        <v>4122.67</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>18763.09</v>
+        <v>4396.86</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>18868.57</v>
+        <v>4403.32</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>18900.4</v>
+        <v>4403.32</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>18900.4</v>
+        <v>4403.32</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>18900.4</v>
+        <v>4403.32</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10493,7 +10493,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>20260.38</v>
+        <v>7984.470000000001</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10517,7 +10517,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>10834.99333333333</v>
+        <v>9423.440833333334</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10549,31 +10549,31 @@
         <v/>
       </c>
       <c r="S23" s="22" t="n">
-        <v/>
+        <v>1237.66</v>
       </c>
       <c r="T23" s="22" t="n">
-        <v/>
+        <v>2884.87</v>
       </c>
       <c r="U23" s="22" t="n">
-        <v>17660.55</v>
+        <v>3250.21</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v>18378.7</v>
+        <v>3547.76</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>20236.75</v>
+        <v>3898.58</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>20236.75</v>
+        <v>7369.380000000001</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>20260.38</v>
+        <v>7413.700000000001</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>20260.38</v>
+        <v>7984.470000000001</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>20260.38</v>
+        <v>7984.470000000001</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10629,7 +10629,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>20722.01</v>
+        <v>8089.9</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10655,7 +10655,7 @@
         <v/>
       </c>
       <c r="I24" s="14" t="n">
-        <v>10854.00333333333</v>
+        <v>9324.3575</v>
       </c>
       <c r="J24" s="14">
         <f>100*$G24/$I24</f>
@@ -10687,28 +10687,28 @@
         <v/>
       </c>
       <c r="S24" s="22" t="n">
-        <v/>
+        <v>591.76</v>
       </c>
       <c r="T24" s="22" t="n">
-        <v>3063.39</v>
+        <v>2615.14</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>19861.86</v>
+        <v>3149.67</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>20642.59</v>
+        <v>3539.07</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>20722.01</v>
+        <v>3960.58</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>20722.01</v>
+        <v>5634.95</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>20722.01</v>
+        <v>5641.9</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>20722.01</v>
+        <v>8089.9</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10767,7 +10767,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>18602.67</v>
+        <v>2911.49</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10793,7 +10793,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v>10854.00333333333</v>
+        <v>9139.9825</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -10825,25 +10825,25 @@
         <v/>
       </c>
       <c r="S25" s="22" t="n">
-        <v>457.06</v>
+        <v>55.04</v>
       </c>
       <c r="T25" s="22" t="n">
-        <v>3965.31</v>
+        <v>653.9599999999999</v>
       </c>
       <c r="U25" s="22" t="n">
-        <v>18289.4</v>
+        <v>2484.83</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v>18638.12</v>
+        <v>2876.65</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>18654.65</v>
+        <v>2911.49</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>18583.68</v>
+        <v>2911.49</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>18602.67</v>
+        <v>2911.49</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10905,7 +10905,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>2546.99</v>
+        <v>4473.12</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10931,7 +10931,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>9756.408333333333</v>
+        <v>9139.9825</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10963,22 +10963,22 @@
         <v/>
       </c>
       <c r="S26" s="22" t="n">
-        <v>139.78</v>
+        <v/>
       </c>
       <c r="T26" s="22" t="n">
-        <v>1844.54</v>
+        <v>2824.94</v>
       </c>
       <c r="U26" s="22" t="n">
-        <v>2322.21</v>
+        <v>4039.1</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v>2511.83</v>
+        <v>4392.73</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>2524.56</v>
+        <v>4473.12</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>2546.99</v>
+        <v>4473.12</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11043,7 +11043,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>4122.67</v>
+        <v>20888.89</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11069,7 +11069,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>9756.408333333333</v>
+        <v>8407.3225</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11101,19 +11101,19 @@
         <v/>
       </c>
       <c r="S27" s="22" t="n">
-        <v>137.69</v>
+        <v>301.07</v>
       </c>
       <c r="T27" s="22" t="n">
-        <v>1675.66</v>
+        <v>2709.37</v>
       </c>
       <c r="U27" s="22" t="n">
-        <v>3609.14</v>
+        <v>19449.29</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v>4050.95</v>
+        <v>20159.66</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v>4122.67</v>
+        <v>20888.89</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11181,7 +11181,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>3547.76</v>
+        <v>20596.44</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11207,7 +11207,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>9423.440833333332</v>
+        <v>7827.2975</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11239,16 +11239,16 @@
         <v/>
       </c>
       <c r="S28" s="22" t="n">
-        <v>1237.66</v>
+        <v>237.34</v>
       </c>
       <c r="T28" s="22" t="n">
-        <v>2884.87</v>
+        <v>18234.15</v>
       </c>
       <c r="U28" s="22" t="n">
-        <v>3250.21</v>
+        <v>18601.51</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>3547.76</v>
+        <v>20596.44</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11319,7 +11319,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v>3149.67</v>
+        <v>22602.06</v>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11346,7 +11346,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>9324.3575</v>
+        <v>7430.590833333333</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>190</v>
@@ -11377,13 +11377,13 @@
         <v/>
       </c>
       <c r="S29" s="22" t="n">
-        <v>591.76</v>
+        <v>478.43</v>
       </c>
       <c r="T29" s="22" t="n">
-        <v>2615.14</v>
+        <v>22045.33</v>
       </c>
       <c r="U29" s="22" t="n">
-        <v>3149.67</v>
+        <v>22602.06</v>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11457,7 +11457,7 @@
         <v/>
       </c>
       <c r="B30" s="14" t="n">
-        <v>653.9599999999999</v>
+        <v>17834.34</v>
       </c>
       <c r="C30" s="14">
         <f>++'Completion Factors'!J8</f>
@@ -11484,7 +11484,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>9139.9825</v>
+        <v>7319.710833333334</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>180</v>
@@ -11515,10 +11515,10 @@
         <v/>
       </c>
       <c r="S30" s="22" t="n">
-        <v>55.04</v>
+        <v>338.5</v>
       </c>
       <c r="T30" s="22" t="n">
-        <v>653.9599999999999</v>
+        <v>17834.34</v>
       </c>
       <c r="U30" s="22" t="n">
         <v/>
@@ -11595,7 +11595,7 @@
         <v/>
       </c>
       <c r="B31" s="14" t="n">
-        <v/>
+        <v>446.27</v>
       </c>
       <c r="C31" s="14">
         <f>+'Completion Factors'!J7</f>
@@ -11622,7 +11622,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v>9139.9825</v>
+        <v>7354.620833333333</v>
       </c>
       <c r="J31" s="20" t="n">
         <v>180</v>
@@ -11653,7 +11653,7 @@
         <v/>
       </c>
       <c r="S31" s="22" t="n">
-        <v/>
+        <v>446.27</v>
       </c>
       <c r="T31" s="22" t="n">
         <v/>
